--- a/cpt_data_p_y_curve.xlsx
+++ b/cpt_data_p_y_curve.xlsx
@@ -571,70 +571,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E2" t="n">
-        <v>30.55698153572829</v>
+        <v>4.30141506619142</v>
       </c>
       <c r="F2" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G2" t="n">
-        <v>51.89144567440538</v>
+        <v>17.20566026476568</v>
       </c>
       <c r="H2" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I2" t="n">
-        <v>70.72820374016646</v>
+        <v>25.80849039714852</v>
       </c>
       <c r="J2" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>76.36587357632942</v>
+        <v>34.41132052953136</v>
       </c>
       <c r="L2" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M2" t="n">
-        <v>76.6545992103463</v>
+        <v>43.0141506619142</v>
       </c>
       <c r="N2" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O2" t="n">
-        <v>76.6553440677898</v>
+        <v>51.61698079429704</v>
       </c>
       <c r="P2" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q2" t="n">
-        <v>76.65534407436202</v>
+        <v>60.21981092667988</v>
       </c>
       <c r="R2" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S2" t="n">
-        <v>76.65534407436202</v>
+        <v>68.82264105906272</v>
       </c>
       <c r="T2" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U2" t="n">
-        <v>76.65534407436202</v>
+        <v>77.42547119144557</v>
       </c>
       <c r="V2" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W2" t="n">
-        <v>76.65534407436202</v>
+        <v>83.87759379073269</v>
       </c>
       <c r="X2" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y2" t="n">
-        <v>76.65534407436202</v>
+        <v>86.0283013238284</v>
       </c>
     </row>
     <row r="3">
@@ -648,70 +648,70 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E3" t="n">
-        <v>48.57503142363934</v>
+        <v>10.18890893333379</v>
       </c>
       <c r="F3" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G3" t="n">
-        <v>91.83141735125876</v>
+        <v>40.75563573333517</v>
       </c>
       <c r="H3" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I3" t="n">
-        <v>160.7127312697541</v>
+        <v>61.13345360000274</v>
       </c>
       <c r="J3" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>231.7251355657886</v>
+        <v>81.51127146667034</v>
       </c>
       <c r="L3" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M3" t="n">
-        <v>259.9559531469213</v>
+        <v>101.8890893333379</v>
       </c>
       <c r="N3" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O3" t="n">
-        <v>262.225275130061</v>
+        <v>122.2669072000055</v>
       </c>
       <c r="P3" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q3" t="n">
-        <v>262.2383330346097</v>
+        <v>142.6447250666731</v>
       </c>
       <c r="R3" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S3" t="n">
-        <v>262.2383335798603</v>
+        <v>163.0225429333407</v>
       </c>
       <c r="T3" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U3" t="n">
-        <v>262.2383335798603</v>
+        <v>183.4003608000082</v>
       </c>
       <c r="V3" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W3" t="n">
-        <v>262.2383335798603</v>
+        <v>198.6837242000089</v>
       </c>
       <c r="X3" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y3" t="n">
-        <v>262.2383335798603</v>
+        <v>203.7781786666758</v>
       </c>
     </row>
     <row r="4">
@@ -728,67 +728,67 @@
         <v>1.661767947709472</v>
       </c>
       <c r="E4" t="n">
-        <v>10.37160160260147</v>
+        <v>10.11312199400586</v>
       </c>
       <c r="F4" t="n">
         <v>16.61767947709472</v>
       </c>
       <c r="G4" t="n">
-        <v>41.48640641040588</v>
+        <v>40.45248797602345</v>
       </c>
       <c r="H4" t="n">
         <v>35.85303843128415</v>
       </c>
       <c r="I4" t="n">
-        <v>62.22960961560882</v>
+        <v>60.67873196403517</v>
       </c>
       <c r="J4" t="n">
         <v>68.20607686256831</v>
       </c>
       <c r="K4" t="n">
-        <v>82.97281282081177</v>
+        <v>80.9049759520469</v>
       </c>
       <c r="L4" t="n">
         <v>110.1767947709472</v>
       </c>
       <c r="M4" t="n">
-        <v>103.7160160260147</v>
+        <v>101.1312199400586</v>
       </c>
       <c r="N4" t="n">
         <v>167.8828716335155</v>
       </c>
       <c r="O4" t="n">
-        <v>124.4592192312176</v>
+        <v>121.3574639280703</v>
       </c>
       <c r="P4" t="n">
         <v>252.7066279731785</v>
       </c>
       <c r="Q4" t="n">
-        <v>145.2024224364206</v>
+        <v>141.5837079160821</v>
       </c>
       <c r="R4" t="n">
         <v>388.2364611754099</v>
       </c>
       <c r="S4" t="n">
-        <v>165.9456256416235</v>
+        <v>161.8099519040938</v>
       </c>
       <c r="T4" t="n">
         <v>620.883973854736</v>
       </c>
       <c r="U4" t="n">
-        <v>186.6888288468265</v>
+        <v>182.0361958921055</v>
       </c>
       <c r="V4" t="n">
         <v>988.2375633966303</v>
       </c>
       <c r="W4" t="n">
-        <v>202.2462312507287</v>
+        <v>197.2058788831143</v>
       </c>
       <c r="X4" t="n">
         <v>1311.767947709472</v>
       </c>
       <c r="Y4" t="n">
-        <v>207.4320320520294</v>
+        <v>202.2624398801172</v>
       </c>
     </row>
     <row r="5">
@@ -805,67 +805,67 @@
         <v>1.465886659587723</v>
       </c>
       <c r="E5" t="n">
-        <v>11.99672237311677</v>
+        <v>11.7342762041225</v>
       </c>
       <c r="F5" t="n">
         <v>14.65886659587723</v>
       </c>
       <c r="G5" t="n">
-        <v>47.98688949246707</v>
+        <v>46.93710481649001</v>
       </c>
       <c r="H5" t="n">
         <v>29.97659978763169</v>
       </c>
       <c r="I5" t="n">
-        <v>71.98033423870059</v>
+        <v>70.40565722473501</v>
       </c>
       <c r="J5" t="n">
         <v>56.45319957526338</v>
       </c>
       <c r="K5" t="n">
-        <v>95.97377898493414</v>
+        <v>93.87420963298001</v>
       </c>
       <c r="L5" t="n">
         <v>90.58866595877231</v>
       </c>
       <c r="M5" t="n">
-        <v>119.9672237311677</v>
+        <v>117.342762041225</v>
       </c>
       <c r="N5" t="n">
         <v>136.5418655340357</v>
       </c>
       <c r="O5" t="n">
-        <v>143.9606684774012</v>
+        <v>140.81131444947</v>
       </c>
       <c r="P5" t="n">
         <v>207.6539317051763</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.9541132236347</v>
+        <v>164.279866857715</v>
       </c>
       <c r="R5" t="n">
         <v>317.7191974515803</v>
       </c>
       <c r="S5" t="n">
-        <v>191.9475579698683</v>
+        <v>187.74841926596</v>
       </c>
       <c r="T5" t="n">
         <v>522.9433297938615</v>
       </c>
       <c r="U5" t="n">
-        <v>215.9410027161018</v>
+        <v>211.216971674205</v>
       </c>
       <c r="V5" t="n">
         <v>851.1206617114062</v>
       </c>
       <c r="W5" t="n">
-        <v>233.9360862757769</v>
+        <v>228.8183859803888</v>
       </c>
       <c r="X5" t="n">
         <v>1115.886659587723</v>
       </c>
       <c r="Y5" t="n">
-        <v>239.9344474623353</v>
+        <v>234.68552408245</v>
       </c>
     </row>
     <row r="6">
@@ -882,67 +882,67 @@
         <v>1.413756580239499</v>
       </c>
       <c r="E6" t="n">
-        <v>15.40568221032181</v>
+        <v>15.08195708119604</v>
       </c>
       <c r="F6" t="n">
         <v>14.137565802395</v>
       </c>
       <c r="G6" t="n">
-        <v>61.62272884128723</v>
+        <v>60.32782832478415</v>
       </c>
       <c r="H6" t="n">
         <v>28.41269740718498</v>
       </c>
       <c r="I6" t="n">
-        <v>92.43409326193084</v>
+        <v>90.49174248717623</v>
       </c>
       <c r="J6" t="n">
         <v>53.32539481436996</v>
       </c>
       <c r="K6" t="n">
-        <v>123.2454576825745</v>
+        <v>120.6556566495683</v>
       </c>
       <c r="L6" t="n">
         <v>85.37565802394995</v>
       </c>
       <c r="M6" t="n">
-        <v>154.0568221032181</v>
+        <v>150.8195708119604</v>
       </c>
       <c r="N6" t="n">
         <v>128.2010528383199</v>
       </c>
       <c r="O6" t="n">
-        <v>184.8681865238617</v>
+        <v>180.9834849743525</v>
       </c>
       <c r="P6" t="n">
         <v>195.6640134550849</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.6795509445053</v>
+        <v>211.1473991367445</v>
       </c>
       <c r="R6" t="n">
         <v>298.9523688862198</v>
       </c>
       <c r="S6" t="n">
-        <v>246.4909153651489</v>
+        <v>241.3113132991366</v>
       </c>
       <c r="T6" t="n">
         <v>496.8782901197497</v>
       </c>
       <c r="U6" t="n">
-        <v>277.3022797857926</v>
+        <v>271.4752274615287</v>
       </c>
       <c r="V6" t="n">
         <v>814.6296061676496</v>
       </c>
       <c r="W6" t="n">
-        <v>300.4108031012752</v>
+        <v>294.0981630833227</v>
       </c>
       <c r="X6" t="n">
         <v>1063.756580239499</v>
       </c>
       <c r="Y6" t="n">
-        <v>308.1136442064362</v>
+        <v>301.6391416239208</v>
       </c>
     </row>
     <row r="7">
@@ -959,67 +959,67 @@
         <v>1.375195503436396</v>
       </c>
       <c r="E7" t="n">
-        <v>19.42797391645346</v>
+        <v>19.13971275652273</v>
       </c>
       <c r="F7" t="n">
         <v>13.75195503436396</v>
       </c>
       <c r="G7" t="n">
-        <v>77.71189566581383</v>
+        <v>76.55885102609093</v>
       </c>
       <c r="H7" t="n">
         <v>27.33027859278269</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5678434987207</v>
+        <v>114.8382765391364</v>
       </c>
       <c r="J7" t="n">
         <v>51.01173020618376</v>
       </c>
       <c r="K7" t="n">
-        <v>155.4237913316277</v>
+        <v>153.1177020521819</v>
       </c>
       <c r="L7" t="n">
         <v>81.51955034363958</v>
       </c>
       <c r="M7" t="n">
-        <v>194.2797391645346</v>
+        <v>191.3971275652273</v>
       </c>
       <c r="N7" t="n">
         <v>122.5273704810954</v>
       </c>
       <c r="O7" t="n">
-        <v>233.1356869974415</v>
+        <v>229.6765530782728</v>
       </c>
       <c r="P7" t="n">
         <v>186.7949657903711</v>
       </c>
       <c r="Q7" t="n">
-        <v>271.9916348303483</v>
+        <v>267.9559785913182</v>
       </c>
       <c r="R7" t="n">
         <v>285.5664711683746</v>
       </c>
       <c r="S7" t="n">
-        <v>310.8475826632553</v>
+        <v>306.2354041043637</v>
       </c>
       <c r="T7" t="n">
         <v>475.6133919931096</v>
       </c>
       <c r="U7" t="n">
-        <v>349.7035304961622</v>
+        <v>344.5148296174092</v>
       </c>
       <c r="V7" t="n">
         <v>785.1564027491168</v>
       </c>
       <c r="W7" t="n">
-        <v>378.8454913708424</v>
+        <v>373.2243987521933</v>
       </c>
       <c r="X7" t="n">
         <v>1037.597751718198</v>
       </c>
       <c r="Y7" t="n">
-        <v>388.5594783290691</v>
+        <v>382.7942551304546</v>
       </c>
     </row>
     <row r="8">
@@ -1036,67 +1036,67 @@
         <v>1.238298502468788</v>
       </c>
       <c r="E8" t="n">
-        <v>21.68098044935765</v>
+        <v>21.37007004907905</v>
       </c>
       <c r="F8" t="n">
         <v>12.38298502468788</v>
       </c>
       <c r="G8" t="n">
-        <v>86.72392179743059</v>
+        <v>85.48028019631622</v>
       </c>
       <c r="H8" t="n">
         <v>23.63405956665726</v>
       </c>
       <c r="I8" t="n">
-        <v>130.0858826961459</v>
+        <v>128.2204202944743</v>
       </c>
       <c r="J8" t="n">
         <v>42.79791014812726</v>
       </c>
       <c r="K8" t="n">
-        <v>173.4478435948612</v>
+        <v>170.9605603926324</v>
       </c>
       <c r="L8" t="n">
         <v>67.82985024687876</v>
       </c>
       <c r="M8" t="n">
-        <v>216.8098044935765</v>
+        <v>213.7007004907905</v>
       </c>
       <c r="N8" t="n">
         <v>103.3617903456303</v>
       </c>
       <c r="O8" t="n">
-        <v>260.1717653922917</v>
+        <v>256.4408405889486</v>
       </c>
       <c r="P8" t="n">
         <v>155.3086555678212</v>
       </c>
       <c r="Q8" t="n">
-        <v>303.533726291007</v>
+        <v>299.1809806871067</v>
       </c>
       <c r="R8" t="n">
         <v>239.0214908393878</v>
       </c>
       <c r="S8" t="n">
-        <v>346.8956871897224</v>
+        <v>341.9211207852649</v>
       </c>
       <c r="T8" t="n">
         <v>396.2131314318969</v>
       </c>
       <c r="U8" t="n">
-        <v>390.2576480884376</v>
+        <v>384.6612608834229</v>
       </c>
       <c r="V8" t="n">
         <v>675.6388019750301</v>
       </c>
       <c r="W8" t="n">
-        <v>422.7791187624741</v>
+        <v>416.7163659570415</v>
       </c>
       <c r="X8" t="n">
         <v>969.1492512343938</v>
       </c>
       <c r="Y8" t="n">
-        <v>433.6196089871529</v>
+        <v>427.401400981581</v>
       </c>
     </row>
     <row r="9">
@@ -2034,70 +2034,70 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.264786111430485</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>112.8355954523608</v>
+        <v>139.314019022959</v>
       </c>
       <c r="F21" t="n">
-        <v>12.64786111430485</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G21" t="n">
-        <v>451.3423818094431</v>
+        <v>271.5658930947487</v>
       </c>
       <c r="H21" t="n">
-        <v>24.3492250086231</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I21" t="n">
-        <v>677.0135727141645</v>
+        <v>527.9074967087423</v>
       </c>
       <c r="J21" t="n">
-        <v>44.38716668582911</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K21" t="n">
-        <v>902.6847636188861</v>
+        <v>1015.667836978981</v>
       </c>
       <c r="L21" t="n">
-        <v>70.47861114304851</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.355954523608</v>
+        <v>1882.918496737477</v>
       </c>
       <c r="N21" t="n">
-        <v>107.0700556002679</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O21" t="n">
-        <v>1354.027145428329</v>
+        <v>3111.397860646721</v>
       </c>
       <c r="P21" t="n">
-        <v>161.4008056290116</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q21" t="n">
-        <v>1579.698336333051</v>
+        <v>4057.747684397178</v>
       </c>
       <c r="R21" t="n">
-        <v>248.027277886365</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S21" t="n">
-        <v>1805.369527237772</v>
+        <v>4281.047496725331</v>
       </c>
       <c r="T21" t="n">
-        <v>411.5759446296815</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U21" t="n">
-        <v>2031.040718142494</v>
+        <v>4288.864893682803</v>
       </c>
       <c r="V21" t="n">
-        <v>696.8288891443881</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W21" t="n">
-        <v>2200.294111321035</v>
+        <v>4288.874960270813</v>
       </c>
       <c r="X21" t="n">
-        <v>982.3930557152424</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y21" t="n">
-        <v>2256.711909047215</v>
+        <v>4288.874960293807</v>
       </c>
     </row>
     <row r="22">
@@ -2727,70 +2727,70 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>547.7929420766425</v>
+        <v>420.8343529178615</v>
       </c>
       <c r="F30" t="n">
-        <v>17.5</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G30" t="n">
-        <v>2191.17176830657</v>
+        <v>820.7575208015123</v>
       </c>
       <c r="H30" t="n">
-        <v>38.5</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I30" t="n">
-        <v>3286.757652459854</v>
+        <v>1598.613312383487</v>
       </c>
       <c r="J30" t="n">
-        <v>73.50000000000001</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K30" t="n">
-        <v>4382.34353661314</v>
+        <v>3098.124678878091</v>
       </c>
       <c r="L30" t="n">
-        <v>119</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M30" t="n">
-        <v>5477.929420766424</v>
+        <v>5894.058231620476</v>
       </c>
       <c r="N30" t="n">
-        <v>182</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O30" t="n">
-        <v>6573.515304919709</v>
+        <v>10523.32514446012</v>
       </c>
       <c r="P30" t="n">
-        <v>273</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q30" t="n">
-        <v>7669.101189072993</v>
+        <v>15832.19130026525</v>
       </c>
       <c r="R30" t="n">
-        <v>420</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S30" t="n">
-        <v>8764.68707322628</v>
+        <v>18427.98799974247</v>
       </c>
       <c r="T30" t="n">
-        <v>665</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U30" t="n">
-        <v>9860.272957379564</v>
+        <v>18718.11816084078</v>
       </c>
       <c r="V30" t="n">
-        <v>1050</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W30" t="n">
-        <v>10681.96237049453</v>
+        <v>18721.0687485998</v>
       </c>
       <c r="X30" t="n">
-        <v>1400</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y30" t="n">
-        <v>10955.85884153285</v>
+        <v>18721.06911736049</v>
       </c>
     </row>
     <row r="31">
@@ -3112,70 +3112,70 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>639.0344851085556</v>
+        <v>462.7721669531539</v>
       </c>
       <c r="F35" t="n">
-        <v>17.5</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G35" t="n">
-        <v>2556.137940434222</v>
+        <v>902.6790581605367</v>
       </c>
       <c r="H35" t="n">
-        <v>38.5</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I35" t="n">
-        <v>3834.206910651333</v>
+        <v>1759.134500363581</v>
       </c>
       <c r="J35" t="n">
-        <v>73.50000000000001</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K35" t="n">
-        <v>5112.275880868445</v>
+        <v>3416.238094534586</v>
       </c>
       <c r="L35" t="n">
-        <v>119</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M35" t="n">
-        <v>6390.344851085555</v>
+        <v>6548.43617580144</v>
       </c>
       <c r="N35" t="n">
-        <v>182</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O35" t="n">
-        <v>7668.413821302665</v>
+        <v>11987.10563008828</v>
       </c>
       <c r="P35" t="n">
-        <v>273</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q35" t="n">
-        <v>8946.482791519777</v>
+        <v>19149.1471830594</v>
       </c>
       <c r="R35" t="n">
-        <v>420</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S35" t="n">
-        <v>10224.55176173689</v>
+        <v>23825.74128113274</v>
       </c>
       <c r="T35" t="n">
-        <v>665</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U35" t="n">
-        <v>11502.620731954</v>
+        <v>24661.63266252984</v>
       </c>
       <c r="V35" t="n">
-        <v>1050</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W35" t="n">
-        <v>12461.17245961683</v>
+        <v>24680.27022052712</v>
       </c>
       <c r="X35" t="n">
-        <v>1400</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y35" t="n">
-        <v>12780.68970217111</v>
+        <v>24680.28057479898</v>
       </c>
     </row>
     <row r="36">
@@ -3189,70 +3189,70 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E36" t="n">
-        <v>634.9391578102676</v>
+        <v>941.2269562516105</v>
       </c>
       <c r="F36" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1238.407995744216</v>
+        <v>3764.907825006442</v>
       </c>
       <c r="H36" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I36" t="n">
-        <v>2412.672629850178</v>
+        <v>5647.361737509663</v>
       </c>
       <c r="J36" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>4680.080123829017</v>
+        <v>7529.815650012884</v>
       </c>
       <c r="L36" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M36" t="n">
-        <v>8933.603897919031</v>
+        <v>9412.269562516105</v>
       </c>
       <c r="N36" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O36" t="n">
-        <v>16126.05537522721</v>
+        <v>11294.72347501933</v>
       </c>
       <c r="P36" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q36" t="n">
-        <v>24884.15416878762</v>
+        <v>13177.17738752255</v>
       </c>
       <c r="R36" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S36" t="n">
-        <v>29722.73113733198</v>
+        <v>15059.63130002577</v>
       </c>
       <c r="T36" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U36" t="n">
-        <v>30380.90514197214</v>
+        <v>16942.08521252899</v>
       </c>
       <c r="V36" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W36" t="n">
-        <v>30390.23524249446</v>
+        <v>18353.92564690641</v>
       </c>
       <c r="X36" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y36" t="n">
-        <v>30390.23744203538</v>
+        <v>18824.53912503221</v>
       </c>
     </row>
     <row r="37">
@@ -3266,70 +3266,70 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>690.3803833129862</v>
+        <v>487.8574002671367</v>
       </c>
       <c r="F37" t="n">
-        <v>17.5</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G37" t="n">
-        <v>2761.521533251945</v>
+        <v>951.6408736174644</v>
       </c>
       <c r="H37" t="n">
-        <v>38.5</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I37" t="n">
-        <v>4142.282299877917</v>
+        <v>1854.778955711186</v>
       </c>
       <c r="J37" t="n">
-        <v>73.50000000000001</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K37" t="n">
-        <v>5523.043066503889</v>
+        <v>3603.652567361725</v>
       </c>
       <c r="L37" t="n">
-        <v>119</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M37" t="n">
-        <v>6903.803833129861</v>
+        <v>6919.542965443232</v>
       </c>
       <c r="N37" t="n">
-        <v>182</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O37" t="n">
-        <v>8284.564599755833</v>
+        <v>12740.70442792607</v>
       </c>
       <c r="P37" t="n">
-        <v>273</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q37" t="n">
-        <v>9665.325366381805</v>
+        <v>20666.84162284768</v>
       </c>
       <c r="R37" t="n">
-        <v>420</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S37" t="n">
-        <v>11046.08613300778</v>
+        <v>26242.17759915199</v>
       </c>
       <c r="T37" t="n">
-        <v>665</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U37" t="n">
-        <v>12426.84689963375</v>
+        <v>27370.11646823052</v>
       </c>
       <c r="V37" t="n">
-        <v>1050</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W37" t="n">
-        <v>13462.41747460323</v>
+        <v>27400.9040131797</v>
       </c>
       <c r="X37" t="n">
-        <v>1400</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y37" t="n">
-        <v>13807.60766625972</v>
+        <v>27400.92899553424</v>
       </c>
     </row>
     <row r="38">
@@ -3651,70 +3651,70 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E42" t="n">
-        <v>651.4001929407057</v>
+        <v>984.7802905163544</v>
       </c>
       <c r="F42" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G42" t="n">
-        <v>1270.688513033202</v>
+        <v>3939.121162065418</v>
       </c>
       <c r="H42" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2476.852222142752</v>
+        <v>5908.681743098126</v>
       </c>
       <c r="J42" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>4814.035570709894</v>
+        <v>7878.242324130835</v>
       </c>
       <c r="L42" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M42" t="n">
-        <v>9256.157844653118</v>
+        <v>9847.802905163544</v>
       </c>
       <c r="N42" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O42" t="n">
-        <v>17122.49341316478</v>
+        <v>11817.36348619625</v>
       </c>
       <c r="P42" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q42" t="n">
-        <v>28125.21477664772</v>
+        <v>13786.92406722896</v>
       </c>
       <c r="R42" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S42" t="n">
-        <v>36355.14749465895</v>
+        <v>15756.48464826167</v>
       </c>
       <c r="T42" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U42" t="n">
-        <v>38202.01519392437</v>
+        <v>17726.04522929438</v>
       </c>
       <c r="V42" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W42" t="n">
-        <v>38261.64588227093</v>
+        <v>19203.21566506891</v>
       </c>
       <c r="X42" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y42" t="n">
-        <v>38261.71200185318</v>
+        <v>19695.60581032709</v>
       </c>
     </row>
     <row r="43">
@@ -3805,70 +3805,70 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E44" t="n">
-        <v>814.4686438328331</v>
+        <v>1328.923985919506</v>
       </c>
       <c r="F44" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G44" t="n">
-        <v>1588.79649644758</v>
+        <v>5315.695943678023</v>
       </c>
       <c r="H44" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3096.987575393132</v>
+        <v>7973.543915517033</v>
       </c>
       <c r="J44" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>6019.871527785859</v>
+        <v>10631.39188735605</v>
       </c>
       <c r="L44" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M44" t="n">
-        <v>11578.48515738811</v>
+        <v>13289.23985919506</v>
       </c>
       <c r="N44" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O44" t="n">
-        <v>21442.87715131309</v>
+        <v>15947.08783103407</v>
       </c>
       <c r="P44" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q44" t="n">
-        <v>35332.09830165873</v>
+        <v>18604.93580287308</v>
       </c>
       <c r="R44" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S44" t="n">
-        <v>45882.19872799428</v>
+        <v>21262.78377471209</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U44" t="n">
-        <v>48312.54201186045</v>
+        <v>23920.6317465511</v>
       </c>
       <c r="V44" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W44" t="n">
-        <v>48394.39741628983</v>
+        <v>25914.01772543036</v>
       </c>
       <c r="X44" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y44" t="n">
-        <v>48394.49555779635</v>
+        <v>26578.47971839011</v>
       </c>
     </row>
     <row r="45">
@@ -3882,70 +3882,70 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>1194.054870645135</v>
+        <v>753.0170541702568</v>
       </c>
       <c r="F45" t="n">
-        <v>17.5</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G45" t="n">
-        <v>4776.219482580541</v>
+        <v>1468.970227876105</v>
       </c>
       <c r="H45" t="n">
-        <v>38.5</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I45" t="n">
-        <v>7164.329223870812</v>
+        <v>2863.772082700163</v>
       </c>
       <c r="J45" t="n">
-        <v>73.50000000000001</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K45" t="n">
-        <v>9552.438965161082</v>
+        <v>5569.183347451703</v>
       </c>
       <c r="L45" t="n">
-        <v>119</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M45" t="n">
-        <v>11940.54870645135</v>
+        <v>10730.48015477292</v>
       </c>
       <c r="N45" t="n">
-        <v>182</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O45" t="n">
-        <v>14328.65844774162</v>
+        <v>19994.42715727854</v>
       </c>
       <c r="P45" t="n">
-        <v>273</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q45" t="n">
-        <v>16716.76818903189</v>
+        <v>33515.1753750662</v>
       </c>
       <c r="R45" t="n">
-        <v>420</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S45" t="n">
-        <v>19104.87793032216</v>
+        <v>44697.02683904086</v>
       </c>
       <c r="T45" t="n">
-        <v>665</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U45" t="n">
-        <v>21492.98767161243</v>
+        <v>47679.51214757744</v>
       </c>
       <c r="V45" t="n">
-        <v>1050</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W45" t="n">
-        <v>23284.06997758014</v>
+        <v>47806.61222245733</v>
       </c>
       <c r="X45" t="n">
-        <v>1400</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y45" t="n">
-        <v>23881.09741290271</v>
+        <v>47806.84704283991</v>
       </c>
     </row>
     <row r="46">
@@ -4036,70 +4036,70 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E47" t="n">
-        <v>915.0342820437734</v>
+        <v>1569.949304764902</v>
       </c>
       <c r="F47" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G47" t="n">
-        <v>1785.032701371566</v>
+        <v>6279.797219059608</v>
       </c>
       <c r="H47" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I47" t="n">
-        <v>3479.958198182846</v>
+        <v>9419.695828589412</v>
       </c>
       <c r="J47" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>6767.622882094262</v>
+        <v>12559.59443811922</v>
       </c>
       <c r="L47" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M47" t="n">
-        <v>13040.59822231356</v>
+        <v>15699.49304764902</v>
       </c>
       <c r="N47" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O47" t="n">
-        <v>24305.55308844956</v>
+        <v>18839.39165717882</v>
       </c>
       <c r="P47" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q47" t="n">
-        <v>40773.24664941157</v>
+        <v>21979.29026670863</v>
       </c>
       <c r="R47" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S47" t="n">
-        <v>54445.21607258629</v>
+        <v>25119.18887623843</v>
       </c>
       <c r="T47" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U47" t="n">
-        <v>58116.64871342134</v>
+        <v>28259.08748576824</v>
       </c>
       <c r="V47" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W47" t="n">
-        <v>58274.81143331033</v>
+        <v>30614.01144291559</v>
       </c>
       <c r="X47" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y47" t="n">
-        <v>58275.1094749173</v>
+        <v>31398.98609529804</v>
       </c>
     </row>
     <row r="48">
@@ -4498,70 +4498,70 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1.286145577660908</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>483.6993642737864</v>
+        <v>367.196085783462</v>
       </c>
       <c r="F53" t="n">
-        <v>12.86145577660908</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G53" t="n">
-        <v>1934.797457095146</v>
+        <v>716.3960026991288</v>
       </c>
       <c r="H53" t="n">
-        <v>24.92593059684451</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I53" t="n">
-        <v>2902.196185642718</v>
+        <v>1397.195153869669</v>
       </c>
       <c r="J53" t="n">
-        <v>45.66873465965447</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K53" t="n">
-        <v>3869.594914190291</v>
+        <v>2721.363137896133</v>
       </c>
       <c r="L53" t="n">
-        <v>72.61455776609077</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M53" t="n">
-        <v>4836.993642737863</v>
+        <v>5274.062199832274</v>
       </c>
       <c r="N53" t="n">
-        <v>110.0603808725271</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O53" t="n">
-        <v>5804.392371285436</v>
+        <v>10033.96835887713</v>
       </c>
       <c r="P53" t="n">
-        <v>166.3134828620088</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q53" t="n">
-        <v>6771.791099833008</v>
+        <v>17916.36606744033</v>
       </c>
       <c r="R53" t="n">
-        <v>255.2894964047086</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S53" t="n">
-        <v>7739.189828380582</v>
+        <v>26960.29476161373</v>
       </c>
       <c r="T53" t="n">
-        <v>423.9644350433265</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U53" t="n">
-        <v>8706.588556928155</v>
+        <v>31386.63162686837</v>
       </c>
       <c r="V53" t="n">
-        <v>713.9164621287262</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W53" t="n">
-        <v>9432.137603338833</v>
+        <v>31882.12339392172</v>
       </c>
       <c r="X53" t="n">
-        <v>993.0727888304538</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y53" t="n">
-        <v>9673.987285475727</v>
+        <v>31887.1757483055</v>
       </c>
     </row>
     <row r="54">
@@ -5730,70 +5730,70 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1.465274406054907</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>921.7476906697361</v>
+        <v>552.9415535739973</v>
       </c>
       <c r="F69" t="n">
-        <v>14.65274406054908</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G69" t="n">
-        <v>3686.990762678945</v>
+        <v>1078.827829382286</v>
       </c>
       <c r="H69" t="n">
-        <v>29.95823218164723</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I69" t="n">
-        <v>5530.486144018416</v>
+        <v>2104.378165405696</v>
       </c>
       <c r="J69" t="n">
-        <v>56.41646436329445</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K69" t="n">
-        <v>7373.981525357889</v>
+        <v>4101.194797458433</v>
       </c>
       <c r="L69" t="n">
-        <v>90.52744060549075</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M69" t="n">
-        <v>9217.47690669736</v>
+        <v>7965.967358358159</v>
       </c>
       <c r="N69" t="n">
-        <v>136.4439049687852</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O69" t="n">
-        <v>11060.97228803683</v>
+        <v>15279.87196370718</v>
       </c>
       <c r="P69" t="n">
-        <v>207.5131133926287</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q69" t="n">
-        <v>12904.4676693763</v>
+        <v>28034.15281737316</v>
       </c>
       <c r="R69" t="n">
-        <v>317.4987861797667</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S69" t="n">
-        <v>14747.96305071578</v>
+        <v>45049.48106306994</v>
       </c>
       <c r="T69" t="n">
-        <v>522.6372030274538</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U69" t="n">
-        <v>16591.45843205525</v>
+        <v>56483.30226542398</v>
       </c>
       <c r="V69" t="n">
-        <v>850.6920842384352</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W69" t="n">
-        <v>17974.07996805985</v>
+        <v>58626.50656896612</v>
       </c>
       <c r="X69" t="n">
-        <v>1115.274406054908</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y69" t="n">
-        <v>18434.95381339472</v>
+        <v>58678.1629277765</v>
       </c>
     </row>
     <row r="70">

--- a/cpt_data_p_y_curve.xlsx
+++ b/cpt_data_p_y_curve.xlsx
@@ -571,70 +571,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4.30141506619142</v>
+        <v>22.85744843000341</v>
       </c>
       <c r="F2" t="n">
-        <v>17.5</v>
+        <v>1.951232399646889</v>
       </c>
       <c r="G2" t="n">
-        <v>17.20566026476568</v>
+        <v>41.20994224602514</v>
       </c>
       <c r="H2" t="n">
-        <v>38.5</v>
+        <v>3.807307877431757</v>
       </c>
       <c r="I2" t="n">
-        <v>25.80849039714852</v>
+        <v>63.40824746534881</v>
       </c>
       <c r="J2" t="n">
-        <v>73.50000000000001</v>
+        <v>7.428942485875671</v>
       </c>
       <c r="K2" t="n">
-        <v>34.41132052953136</v>
+        <v>75.50320997879059</v>
       </c>
       <c r="L2" t="n">
-        <v>119</v>
+        <v>14.49559327355391</v>
       </c>
       <c r="M2" t="n">
-        <v>43.0141506619142</v>
+        <v>77.11198064863966</v>
       </c>
       <c r="N2" t="n">
-        <v>182</v>
+        <v>28.28427124746191</v>
       </c>
       <c r="O2" t="n">
-        <v>51.61698079429704</v>
+        <v>77.13394412917624</v>
       </c>
       <c r="P2" t="n">
-        <v>273</v>
+        <v>55.18918645844859</v>
       </c>
       <c r="Q2" t="n">
-        <v>60.21981092667988</v>
+        <v>77.13394894889329</v>
       </c>
       <c r="R2" t="n">
-        <v>420</v>
+        <v>107.6869287278782</v>
       </c>
       <c r="S2" t="n">
-        <v>68.82264105906272</v>
+        <v>77.13394894889365</v>
       </c>
       <c r="T2" t="n">
-        <v>665</v>
+        <v>210.1222243523014</v>
       </c>
       <c r="U2" t="n">
-        <v>77.42547119144557</v>
+        <v>77.13394894889365</v>
       </c>
       <c r="V2" t="n">
-        <v>1050</v>
+        <v>409.9972920420831</v>
       </c>
       <c r="W2" t="n">
-        <v>83.87759379073269</v>
+        <v>77.13394894889365</v>
       </c>
       <c r="X2" t="n">
-        <v>1400</v>
+        <v>800.0000000000003</v>
       </c>
       <c r="Y2" t="n">
-        <v>86.0283013238284</v>
+        <v>77.13394894889365</v>
       </c>
     </row>
     <row r="3">
@@ -651,67 +651,67 @@
         <v>1.75</v>
       </c>
       <c r="E3" t="n">
-        <v>10.18890893333379</v>
+        <v>10.6307447969246</v>
       </c>
       <c r="F3" t="n">
         <v>17.5</v>
       </c>
       <c r="G3" t="n">
-        <v>40.75563573333517</v>
+        <v>42.52297918769838</v>
       </c>
       <c r="H3" t="n">
         <v>38.5</v>
       </c>
       <c r="I3" t="n">
-        <v>61.13345360000274</v>
+        <v>63.78446878154757</v>
       </c>
       <c r="J3" t="n">
         <v>73.50000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>81.51127146667034</v>
+        <v>85.04595837539676</v>
       </c>
       <c r="L3" t="n">
         <v>119</v>
       </c>
       <c r="M3" t="n">
-        <v>101.8890893333379</v>
+        <v>106.307447969246</v>
       </c>
       <c r="N3" t="n">
         <v>182</v>
       </c>
       <c r="O3" t="n">
-        <v>122.2669072000055</v>
+        <v>127.5689375630951</v>
       </c>
       <c r="P3" t="n">
         <v>273</v>
       </c>
       <c r="Q3" t="n">
-        <v>142.6447250666731</v>
+        <v>148.8304271569443</v>
       </c>
       <c r="R3" t="n">
         <v>420</v>
       </c>
       <c r="S3" t="n">
-        <v>163.0225429333407</v>
+        <v>170.0919167507935</v>
       </c>
       <c r="T3" t="n">
         <v>665</v>
       </c>
       <c r="U3" t="n">
-        <v>183.4003608000082</v>
+        <v>191.3534063446427</v>
       </c>
       <c r="V3" t="n">
         <v>1050</v>
       </c>
       <c r="W3" t="n">
-        <v>198.6837242000089</v>
+        <v>207.2995235400296</v>
       </c>
       <c r="X3" t="n">
         <v>1400</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.7781786666758</v>
+        <v>212.6148959384919</v>
       </c>
     </row>
     <row r="4">
@@ -725,70 +725,70 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.661767947709472</v>
+        <v>1.419890644898507</v>
       </c>
       <c r="E4" t="n">
-        <v>10.11312199400586</v>
+        <v>10.34691915399849</v>
       </c>
       <c r="F4" t="n">
-        <v>16.61767947709472</v>
+        <v>14.19890644898507</v>
       </c>
       <c r="G4" t="n">
-        <v>40.45248797602345</v>
+        <v>41.38767661599396</v>
       </c>
       <c r="H4" t="n">
-        <v>35.85303843128415</v>
+        <v>28.59671934695521</v>
       </c>
       <c r="I4" t="n">
-        <v>60.67873196403517</v>
+        <v>62.08151492399093</v>
       </c>
       <c r="J4" t="n">
-        <v>68.20607686256831</v>
+        <v>53.69343869391042</v>
       </c>
       <c r="K4" t="n">
-        <v>80.9049759520469</v>
+        <v>82.77535323198792</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1767947709472</v>
+        <v>85.9890644898507</v>
       </c>
       <c r="M4" t="n">
-        <v>101.1312199400586</v>
+        <v>103.4691915399849</v>
       </c>
       <c r="N4" t="n">
-        <v>167.8828716335155</v>
+        <v>129.1825031837611</v>
       </c>
       <c r="O4" t="n">
-        <v>121.3574639280703</v>
+        <v>124.1630298479819</v>
       </c>
       <c r="P4" t="n">
-        <v>252.7066279731785</v>
+        <v>197.0748483266566</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.5837079160821</v>
+        <v>144.8568681559788</v>
       </c>
       <c r="R4" t="n">
-        <v>388.2364611754099</v>
+        <v>301.1606321634625</v>
       </c>
       <c r="S4" t="n">
-        <v>161.8099519040938</v>
+        <v>165.5507064639758</v>
       </c>
       <c r="T4" t="n">
-        <v>620.883973854736</v>
+        <v>499.9453224492535</v>
       </c>
       <c r="U4" t="n">
-        <v>182.0361958921055</v>
+        <v>186.2445447719728</v>
       </c>
       <c r="V4" t="n">
-        <v>988.2375633966303</v>
+        <v>818.923451428955</v>
       </c>
       <c r="W4" t="n">
-        <v>197.2058788831143</v>
+        <v>201.7649235029705</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.767947709472</v>
+        <v>1069.890644898507</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.2624398801172</v>
+        <v>206.9383830799698</v>
       </c>
     </row>
     <row r="5">
@@ -802,70 +802,70 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.465886659587723</v>
+        <v>1.178481963059365</v>
       </c>
       <c r="E5" t="n">
-        <v>11.7342762041225</v>
+        <v>11.9721442802778</v>
       </c>
       <c r="F5" t="n">
-        <v>14.65886659587723</v>
+        <v>11.78481963059365</v>
       </c>
       <c r="G5" t="n">
-        <v>46.93710481649001</v>
+        <v>47.8885771211112</v>
       </c>
       <c r="H5" t="n">
-        <v>29.97659978763169</v>
+        <v>22.01901300260286</v>
       </c>
       <c r="I5" t="n">
-        <v>70.40565722473501</v>
+        <v>71.8328656816668</v>
       </c>
       <c r="J5" t="n">
-        <v>56.45319957526338</v>
+        <v>39.20891778356191</v>
       </c>
       <c r="K5" t="n">
-        <v>93.87420963298001</v>
+        <v>95.77715424222241</v>
       </c>
       <c r="L5" t="n">
-        <v>90.58866595877231</v>
+        <v>61.84819630593651</v>
       </c>
       <c r="M5" t="n">
-        <v>117.342762041225</v>
+        <v>119.721442802778</v>
       </c>
       <c r="N5" t="n">
-        <v>136.5418655340357</v>
+        <v>94.98747482831111</v>
       </c>
       <c r="O5" t="n">
-        <v>140.81131444947</v>
+        <v>143.6657313633336</v>
       </c>
       <c r="P5" t="n">
-        <v>207.6539317051763</v>
+        <v>141.550851503654</v>
       </c>
       <c r="Q5" t="n">
-        <v>164.279866857715</v>
+        <v>167.6100199238892</v>
       </c>
       <c r="R5" t="n">
-        <v>317.7191974515803</v>
+        <v>218.6838674401841</v>
       </c>
       <c r="S5" t="n">
-        <v>187.74841926596</v>
+        <v>191.5543084844448</v>
       </c>
       <c r="T5" t="n">
-        <v>522.9433297938615</v>
+        <v>361.5195385744317</v>
       </c>
       <c r="U5" t="n">
-        <v>211.216971674205</v>
+        <v>215.4985970450004</v>
       </c>
       <c r="V5" t="n">
-        <v>851.1206617114062</v>
+        <v>627.7855704474921</v>
       </c>
       <c r="W5" t="n">
-        <v>228.8183859803888</v>
+        <v>233.4568134654171</v>
       </c>
       <c r="X5" t="n">
-        <v>1115.886659587723</v>
+        <v>939.2409815296825</v>
       </c>
       <c r="Y5" t="n">
-        <v>234.68552408245</v>
+        <v>239.442885605556</v>
       </c>
     </row>
     <row r="6">
@@ -879,70 +879,70 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.413756580239499</v>
+        <v>1.108832098897381</v>
       </c>
       <c r="E6" t="n">
-        <v>15.08195708119604</v>
+        <v>15.37734919888549</v>
       </c>
       <c r="F6" t="n">
-        <v>14.137565802395</v>
+        <v>11.08832098897381</v>
       </c>
       <c r="G6" t="n">
-        <v>60.32782832478415</v>
+        <v>61.50939679554196</v>
       </c>
       <c r="H6" t="n">
-        <v>28.41269740718498</v>
+        <v>20.13846667022929</v>
       </c>
       <c r="I6" t="n">
-        <v>90.49174248717623</v>
+        <v>92.26409519331293</v>
       </c>
       <c r="J6" t="n">
-        <v>53.32539481436996</v>
+        <v>35.02992593384287</v>
       </c>
       <c r="K6" t="n">
-        <v>120.6556566495683</v>
+        <v>123.0187935910839</v>
       </c>
       <c r="L6" t="n">
-        <v>85.37565802394995</v>
+        <v>54.88320988973812</v>
       </c>
       <c r="M6" t="n">
-        <v>150.8195708119604</v>
+        <v>153.7734919888549</v>
       </c>
       <c r="N6" t="n">
-        <v>128.2010528383199</v>
+        <v>85.23649384563335</v>
       </c>
       <c r="O6" t="n">
-        <v>180.9834849743525</v>
+        <v>184.5281903866259</v>
       </c>
       <c r="P6" t="n">
-        <v>195.6640134550849</v>
+        <v>125.5313827463977</v>
       </c>
       <c r="Q6" t="n">
-        <v>211.1473991367445</v>
+        <v>215.2828887843968</v>
       </c>
       <c r="R6" t="n">
-        <v>298.9523688862198</v>
+        <v>195.0029136251096</v>
       </c>
       <c r="S6" t="n">
-        <v>241.3113132991366</v>
+        <v>246.0375871821678</v>
       </c>
       <c r="T6" t="n">
-        <v>496.8782901197497</v>
+        <v>321.1226173604811</v>
       </c>
       <c r="U6" t="n">
-        <v>271.4752274615287</v>
+        <v>276.7922855799388</v>
       </c>
       <c r="V6" t="n">
-        <v>814.6296061676496</v>
+        <v>572.065679117905</v>
       </c>
       <c r="W6" t="n">
-        <v>294.0981630833227</v>
+        <v>299.858309378267</v>
       </c>
       <c r="X6" t="n">
-        <v>1063.756580239499</v>
+        <v>904.4160494486907</v>
       </c>
       <c r="Y6" t="n">
-        <v>301.6391416239208</v>
+        <v>307.5469839777098</v>
       </c>
     </row>
     <row r="7">
@@ -956,70 +956,70 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.375195503436396</v>
+        <v>1.084425802364381</v>
       </c>
       <c r="E7" t="n">
-        <v>19.13971275652273</v>
+        <v>19.5378699180072</v>
       </c>
       <c r="F7" t="n">
-        <v>13.75195503436396</v>
+        <v>10.84425802364381</v>
       </c>
       <c r="G7" t="n">
-        <v>76.55885102609093</v>
+        <v>78.1514796720288</v>
       </c>
       <c r="H7" t="n">
-        <v>27.33027859278269</v>
+        <v>19.47949666383828</v>
       </c>
       <c r="I7" t="n">
-        <v>114.8382765391364</v>
+        <v>117.2272195080432</v>
       </c>
       <c r="J7" t="n">
-        <v>51.01173020618376</v>
+        <v>33.56554814186284</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1177020521819</v>
+        <v>156.3029593440576</v>
       </c>
       <c r="L7" t="n">
-        <v>81.51955034363958</v>
+        <v>52.44258023643808</v>
       </c>
       <c r="M7" t="n">
-        <v>191.3971275652273</v>
+        <v>195.378699180072</v>
       </c>
       <c r="N7" t="n">
-        <v>122.5273704810954</v>
+        <v>81.8196123310133</v>
       </c>
       <c r="O7" t="n">
-        <v>229.6765530782728</v>
+        <v>234.4544390160864</v>
       </c>
       <c r="P7" t="n">
-        <v>186.7949657903711</v>
+        <v>119.9179345438076</v>
       </c>
       <c r="Q7" t="n">
-        <v>267.9559785913182</v>
+        <v>273.5301788521007</v>
       </c>
       <c r="R7" t="n">
-        <v>285.5664711683746</v>
+        <v>186.7047728038895</v>
       </c>
       <c r="S7" t="n">
-        <v>306.2354041043637</v>
+        <v>312.6059186881152</v>
       </c>
       <c r="T7" t="n">
-        <v>475.6133919931096</v>
+        <v>306.9669653713408</v>
       </c>
       <c r="U7" t="n">
-        <v>344.5148296174092</v>
+        <v>351.6816585241295</v>
       </c>
       <c r="V7" t="n">
-        <v>785.1564027491168</v>
+        <v>552.5406418915045</v>
       </c>
       <c r="W7" t="n">
-        <v>373.2243987521933</v>
+        <v>380.9884634011403</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.597751718198</v>
+        <v>892.2129011821904</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.7942551304546</v>
+        <v>390.757398360144</v>
       </c>
     </row>
     <row r="8">
@@ -1033,70 +1033,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.238298502468788</v>
+        <v>1.05</v>
       </c>
       <c r="E8" t="n">
-        <v>21.37007004907905</v>
+        <v>21.75562898746939</v>
       </c>
       <c r="F8" t="n">
-        <v>12.38298502468788</v>
+        <v>10.5</v>
       </c>
       <c r="G8" t="n">
-        <v>85.48028019631622</v>
+        <v>87.02251594987757</v>
       </c>
       <c r="H8" t="n">
-        <v>23.63405956665726</v>
+        <v>18.55</v>
       </c>
       <c r="I8" t="n">
-        <v>128.2204202944743</v>
+        <v>130.5337739248163</v>
       </c>
       <c r="J8" t="n">
-        <v>42.79791014812726</v>
+        <v>31.5</v>
       </c>
       <c r="K8" t="n">
-        <v>170.9605603926324</v>
+        <v>174.0450318997551</v>
       </c>
       <c r="L8" t="n">
-        <v>67.82985024687876</v>
+        <v>49</v>
       </c>
       <c r="M8" t="n">
-        <v>213.7007004907905</v>
+        <v>217.5562898746939</v>
       </c>
       <c r="N8" t="n">
-        <v>103.3617903456303</v>
+        <v>77</v>
       </c>
       <c r="O8" t="n">
-        <v>256.4408405889486</v>
+        <v>261.0675478496327</v>
       </c>
       <c r="P8" t="n">
-        <v>155.3086555678212</v>
+        <v>112</v>
       </c>
       <c r="Q8" t="n">
-        <v>299.1809806871067</v>
+        <v>304.5788058245714</v>
       </c>
       <c r="R8" t="n">
-        <v>239.0214908393878</v>
+        <v>175</v>
       </c>
       <c r="S8" t="n">
-        <v>341.9211207852649</v>
+        <v>348.0900637995103</v>
       </c>
       <c r="T8" t="n">
-        <v>396.2131314318969</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U8" t="n">
-        <v>384.6612608834229</v>
+        <v>391.601321774449</v>
       </c>
       <c r="V8" t="n">
-        <v>675.6388019750301</v>
+        <v>525</v>
       </c>
       <c r="W8" t="n">
-        <v>416.7163659570415</v>
+        <v>424.2347652556531</v>
       </c>
       <c r="X8" t="n">
-        <v>969.1492512343938</v>
+        <v>875</v>
       </c>
       <c r="Y8" t="n">
-        <v>427.401400981581</v>
+        <v>435.1125797493878</v>
       </c>
     </row>
     <row r="9">
@@ -1110,70 +1110,70 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.153051402857319</v>
+        <v>1.05</v>
       </c>
       <c r="E9" t="n">
-        <v>29.76421779452822</v>
+        <v>24.04371470042359</v>
       </c>
       <c r="F9" t="n">
-        <v>11.53051402857319</v>
+        <v>10.5</v>
       </c>
       <c r="G9" t="n">
-        <v>119.0568711781129</v>
+        <v>96.17485880169437</v>
       </c>
       <c r="H9" t="n">
-        <v>21.33238787714762</v>
+        <v>18.55</v>
       </c>
       <c r="I9" t="n">
-        <v>178.5853067671693</v>
+        <v>144.2622882025416</v>
       </c>
       <c r="J9" t="n">
-        <v>37.68308417143916</v>
+        <v>31.5</v>
       </c>
       <c r="K9" t="n">
-        <v>238.1137423562258</v>
+        <v>192.3497176033887</v>
       </c>
       <c r="L9" t="n">
-        <v>59.30514028573192</v>
+        <v>49</v>
       </c>
       <c r="M9" t="n">
-        <v>297.6421779452822</v>
+        <v>240.4371470042359</v>
       </c>
       <c r="N9" t="n">
-        <v>91.42719640002468</v>
+        <v>77</v>
       </c>
       <c r="O9" t="n">
-        <v>357.1706135343387</v>
+        <v>288.5245764050831</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7018226571834</v>
+        <v>112</v>
       </c>
       <c r="Q9" t="n">
-        <v>416.6990491233951</v>
+        <v>336.6120058059303</v>
       </c>
       <c r="R9" t="n">
-        <v>210.0374769714886</v>
+        <v>175</v>
       </c>
       <c r="S9" t="n">
-        <v>476.2274847124516</v>
+        <v>384.6994352067775</v>
       </c>
       <c r="T9" t="n">
-        <v>346.7698136572452</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U9" t="n">
-        <v>535.755920301508</v>
+        <v>432.7868646076247</v>
       </c>
       <c r="V9" t="n">
-        <v>607.4411222858554</v>
+        <v>525</v>
       </c>
       <c r="W9" t="n">
-        <v>580.4022469933003</v>
+        <v>468.85243665826</v>
       </c>
       <c r="X9" t="n">
-        <v>926.5257014286597</v>
+        <v>875</v>
       </c>
       <c r="Y9" t="n">
-        <v>595.2843558905645</v>
+        <v>480.8742940084718</v>
       </c>
     </row>
     <row r="10">
@@ -1187,70 +1187,70 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.14390914827314</v>
+        <v>1.05</v>
       </c>
       <c r="E10" t="n">
-        <v>34.40436655210012</v>
+        <v>33.95718347805759</v>
       </c>
       <c r="F10" t="n">
-        <v>11.4390914827314</v>
+        <v>10.5</v>
       </c>
       <c r="G10" t="n">
-        <v>137.6174662084005</v>
+        <v>135.8287339122304</v>
       </c>
       <c r="H10" t="n">
-        <v>21.08554700337478</v>
+        <v>18.55</v>
       </c>
       <c r="I10" t="n">
-        <v>206.4261993126007</v>
+        <v>203.7431008683456</v>
       </c>
       <c r="J10" t="n">
-        <v>37.1345488963884</v>
+        <v>31.5</v>
       </c>
       <c r="K10" t="n">
-        <v>275.234932416801</v>
+        <v>271.6574678244608</v>
       </c>
       <c r="L10" t="n">
-        <v>58.39091482731401</v>
+        <v>49</v>
       </c>
       <c r="M10" t="n">
-        <v>344.0436655210012</v>
+        <v>339.571834780576</v>
       </c>
       <c r="N10" t="n">
-        <v>90.14728075823959</v>
+        <v>77</v>
       </c>
       <c r="O10" t="n">
-        <v>412.8523986252015</v>
+        <v>407.4862017366912</v>
       </c>
       <c r="P10" t="n">
-        <v>133.5991041028222</v>
+        <v>112</v>
       </c>
       <c r="Q10" t="n">
-        <v>481.6611317294017</v>
+        <v>475.4005686928063</v>
       </c>
       <c r="R10" t="n">
-        <v>206.9291104128676</v>
+        <v>175</v>
       </c>
       <c r="S10" t="n">
-        <v>550.4698648336019</v>
+        <v>543.3149356489215</v>
       </c>
       <c r="T10" t="n">
-        <v>341.4673059984212</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U10" t="n">
-        <v>619.2785979378023</v>
+        <v>611.2293026050368</v>
       </c>
       <c r="V10" t="n">
-        <v>600.1273186185119</v>
+        <v>525</v>
       </c>
       <c r="W10" t="n">
-        <v>670.8851477659524</v>
+        <v>662.1650778221231</v>
       </c>
       <c r="X10" t="n">
-        <v>921.95457413657</v>
+        <v>875</v>
       </c>
       <c r="Y10" t="n">
-        <v>688.0873310420025</v>
+        <v>679.1436695611519</v>
       </c>
     </row>
     <row r="11">
@@ -1264,70 +1264,70 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.065610797785399</v>
+        <v>1.05</v>
       </c>
       <c r="E11" t="n">
-        <v>34.00663318186519</v>
+        <v>33.49888460150594</v>
       </c>
       <c r="F11" t="n">
-        <v>10.65610797785399</v>
+        <v>10.5</v>
       </c>
       <c r="G11" t="n">
-        <v>136.0265327274608</v>
+        <v>133.9955384060237</v>
       </c>
       <c r="H11" t="n">
-        <v>18.97149154020578</v>
+        <v>18.55</v>
       </c>
       <c r="I11" t="n">
-        <v>204.0397990911912</v>
+        <v>200.9933076090356</v>
       </c>
       <c r="J11" t="n">
-        <v>32.43664786712394</v>
+        <v>31.5</v>
       </c>
       <c r="K11" t="n">
-        <v>272.0530654549215</v>
+        <v>267.9910768120475</v>
       </c>
       <c r="L11" t="n">
-        <v>50.56107977853991</v>
+        <v>49</v>
       </c>
       <c r="M11" t="n">
-        <v>340.0663318186519</v>
+        <v>334.9888460150593</v>
       </c>
       <c r="N11" t="n">
-        <v>79.18551168995587</v>
+        <v>77</v>
       </c>
       <c r="O11" t="n">
-        <v>408.0795981823823</v>
+        <v>401.9866152180712</v>
       </c>
       <c r="P11" t="n">
-        <v>115.5904834906418</v>
+        <v>112</v>
       </c>
       <c r="Q11" t="n">
-        <v>476.0928645461127</v>
+        <v>468.984384421083</v>
       </c>
       <c r="R11" t="n">
-        <v>180.3076712470357</v>
+        <v>175</v>
       </c>
       <c r="S11" t="n">
-        <v>544.106130909843</v>
+        <v>535.982153624095</v>
       </c>
       <c r="T11" t="n">
-        <v>296.0542627155315</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U11" t="n">
-        <v>612.1193972735734</v>
+        <v>602.9799228271067</v>
       </c>
       <c r="V11" t="n">
-        <v>537.4886382283192</v>
+        <v>525</v>
       </c>
       <c r="W11" t="n">
-        <v>663.1293470463712</v>
+        <v>653.2282497293656</v>
       </c>
       <c r="X11" t="n">
-        <v>882.8053988926996</v>
+        <v>875</v>
       </c>
       <c r="Y11" t="n">
-        <v>680.1326636373038</v>
+        <v>669.9776920301186</v>
       </c>
     </row>
     <row r="12">
@@ -1341,70 +1341,70 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.069344371659152</v>
+        <v>1.05</v>
       </c>
       <c r="E12" t="n">
-        <v>38.8633149802588</v>
+        <v>38.14151053601505</v>
       </c>
       <c r="F12" t="n">
-        <v>10.69344371659153</v>
+        <v>10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>155.4532599210352</v>
+        <v>152.5660421440602</v>
       </c>
       <c r="H12" t="n">
-        <v>19.07229803479712</v>
+        <v>18.55</v>
       </c>
       <c r="I12" t="n">
-        <v>233.1798898815528</v>
+        <v>228.8490632160903</v>
       </c>
       <c r="J12" t="n">
-        <v>32.66066229954915</v>
+        <v>31.5</v>
       </c>
       <c r="K12" t="n">
-        <v>310.9065198420704</v>
+        <v>305.1320842881204</v>
       </c>
       <c r="L12" t="n">
-        <v>50.93443716591526</v>
+        <v>49</v>
       </c>
       <c r="M12" t="n">
-        <v>388.633149802588</v>
+        <v>381.4151053601504</v>
       </c>
       <c r="N12" t="n">
-        <v>79.70821203228134</v>
+        <v>77</v>
       </c>
       <c r="O12" t="n">
-        <v>466.3597797631056</v>
+        <v>457.6981264321805</v>
       </c>
       <c r="P12" t="n">
-        <v>116.4492054816051</v>
+        <v>112</v>
       </c>
       <c r="Q12" t="n">
-        <v>544.0864097236231</v>
+        <v>533.9811475042106</v>
       </c>
       <c r="R12" t="n">
-        <v>181.5770863641119</v>
+        <v>175</v>
       </c>
       <c r="S12" t="n">
-        <v>621.8130396841408</v>
+        <v>610.2641685762408</v>
       </c>
       <c r="T12" t="n">
-        <v>298.2197355623085</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U12" t="n">
-        <v>699.5396696446584</v>
+        <v>686.5471896482708</v>
       </c>
       <c r="V12" t="n">
-        <v>540.4754973273219</v>
+        <v>525</v>
       </c>
       <c r="W12" t="n">
-        <v>757.8346421150466</v>
+        <v>743.7594554522933</v>
       </c>
       <c r="X12" t="n">
-        <v>884.6721858295762</v>
+        <v>875</v>
       </c>
       <c r="Y12" t="n">
-        <v>777.266299605176</v>
+        <v>762.8302107203009</v>
       </c>
     </row>
     <row r="13">
@@ -1418,70 +1418,70 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.104642205900109</v>
+        <v>1.05</v>
       </c>
       <c r="E13" t="n">
-        <v>46.38665669198986</v>
+        <v>45.63296606642894</v>
       </c>
       <c r="F13" t="n">
-        <v>11.04642205900109</v>
+        <v>10.5</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5466267679594</v>
+        <v>182.5318642657158</v>
       </c>
       <c r="H13" t="n">
-        <v>20.02533955930295</v>
+        <v>18.55</v>
       </c>
       <c r="I13" t="n">
-        <v>278.3199401519391</v>
+        <v>273.7977963985736</v>
       </c>
       <c r="J13" t="n">
-        <v>34.77853235400656</v>
+        <v>31.5</v>
       </c>
       <c r="K13" t="n">
-        <v>371.0932535359188</v>
+        <v>365.0637285314315</v>
       </c>
       <c r="L13" t="n">
-        <v>54.46422059001092</v>
+        <v>49</v>
       </c>
       <c r="M13" t="n">
-        <v>463.8665669198985</v>
+        <v>456.3296606642894</v>
       </c>
       <c r="N13" t="n">
-        <v>84.64990882601529</v>
+        <v>77</v>
       </c>
       <c r="O13" t="n">
-        <v>556.6398803038782</v>
+        <v>547.5955927971472</v>
       </c>
       <c r="P13" t="n">
-        <v>124.5677073570251</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="n">
-        <v>649.4131936878579</v>
+        <v>638.8615249300051</v>
       </c>
       <c r="R13" t="n">
-        <v>193.5783500060371</v>
+        <v>175</v>
       </c>
       <c r="S13" t="n">
-        <v>742.1865070718377</v>
+        <v>730.1274570628631</v>
       </c>
       <c r="T13" t="n">
-        <v>318.6924794220633</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U13" t="n">
-        <v>834.9598204558173</v>
+        <v>821.3933891957209</v>
       </c>
       <c r="V13" t="n">
-        <v>568.7137647200874</v>
+        <v>525</v>
       </c>
       <c r="W13" t="n">
-        <v>904.5398054938021</v>
+        <v>889.8428382953643</v>
       </c>
       <c r="X13" t="n">
-        <v>902.3211029500546</v>
+        <v>875</v>
       </c>
       <c r="Y13" t="n">
-        <v>927.733133839797</v>
+        <v>912.6593213285788</v>
       </c>
     </row>
     <row r="14">
@@ -1498,67 +1498,67 @@
         <v>1.05</v>
       </c>
       <c r="E14" t="n">
-        <v>38.64700611708198</v>
+        <v>37.72658112697923</v>
       </c>
       <c r="F14" t="n">
         <v>10.5</v>
       </c>
       <c r="G14" t="n">
-        <v>154.5880244683279</v>
+        <v>150.9063245079169</v>
       </c>
       <c r="H14" t="n">
         <v>18.55</v>
       </c>
       <c r="I14" t="n">
-        <v>231.8820367024918</v>
+        <v>226.3594867618754</v>
       </c>
       <c r="J14" t="n">
         <v>31.5</v>
       </c>
       <c r="K14" t="n">
-        <v>309.1760489366558</v>
+        <v>301.8126490158339</v>
       </c>
       <c r="L14" t="n">
         <v>49</v>
       </c>
       <c r="M14" t="n">
-        <v>386.4700611708197</v>
+        <v>377.2658112697923</v>
       </c>
       <c r="N14" t="n">
         <v>77</v>
       </c>
       <c r="O14" t="n">
-        <v>463.7640734049837</v>
+        <v>452.7189735237508</v>
       </c>
       <c r="P14" t="n">
         <v>112</v>
       </c>
       <c r="Q14" t="n">
-        <v>541.0580856391476</v>
+        <v>528.1721357777092</v>
       </c>
       <c r="R14" t="n">
         <v>175</v>
       </c>
       <c r="S14" t="n">
-        <v>618.3520978733117</v>
+        <v>603.6252980316677</v>
       </c>
       <c r="T14" t="n">
         <v>287.0000000000001</v>
       </c>
       <c r="U14" t="n">
-        <v>695.6461101074756</v>
+        <v>679.0784602856262</v>
       </c>
       <c r="V14" t="n">
         <v>525</v>
       </c>
       <c r="W14" t="n">
-        <v>753.6166192830985</v>
+        <v>735.668331976095</v>
       </c>
       <c r="X14" t="n">
         <v>875</v>
       </c>
       <c r="Y14" t="n">
-        <v>772.9401223416395</v>
+        <v>754.5316225395846</v>
       </c>
     </row>
     <row r="15">
@@ -1575,67 +1575,67 @@
         <v>1.05</v>
       </c>
       <c r="E15" t="n">
-        <v>45.23725378987455</v>
+        <v>44.41421408213643</v>
       </c>
       <c r="F15" t="n">
         <v>10.5</v>
       </c>
       <c r="G15" t="n">
-        <v>180.9490151594982</v>
+        <v>177.6568563285457</v>
       </c>
       <c r="H15" t="n">
         <v>18.55</v>
       </c>
       <c r="I15" t="n">
-        <v>271.4235227392473</v>
+        <v>266.4852844928185</v>
       </c>
       <c r="J15" t="n">
         <v>31.5</v>
       </c>
       <c r="K15" t="n">
-        <v>361.8980303189964</v>
+        <v>355.3137126570914</v>
       </c>
       <c r="L15" t="n">
         <v>49</v>
       </c>
       <c r="M15" t="n">
-        <v>452.3725378987455</v>
+        <v>444.1421408213642</v>
       </c>
       <c r="N15" t="n">
         <v>77</v>
       </c>
       <c r="O15" t="n">
-        <v>542.8470454784946</v>
+        <v>532.970568985637</v>
       </c>
       <c r="P15" t="n">
         <v>112</v>
       </c>
       <c r="Q15" t="n">
-        <v>633.3215530582436</v>
+        <v>621.7989971499098</v>
       </c>
       <c r="R15" t="n">
         <v>175</v>
       </c>
       <c r="S15" t="n">
-        <v>723.7960606379928</v>
+        <v>710.6274253141828</v>
       </c>
       <c r="T15" t="n">
         <v>287.0000000000001</v>
       </c>
       <c r="U15" t="n">
-        <v>814.2705682177418</v>
+        <v>799.4558534784555</v>
       </c>
       <c r="V15" t="n">
         <v>525</v>
       </c>
       <c r="W15" t="n">
-        <v>882.1264489025536</v>
+        <v>866.0771746016602</v>
       </c>
       <c r="X15" t="n">
         <v>875</v>
       </c>
       <c r="Y15" t="n">
-        <v>904.7450757974909</v>
+        <v>888.2842816427284</v>
       </c>
     </row>
     <row r="16">
@@ -1652,67 +1652,67 @@
         <v>1.05</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54518826912853</v>
+        <v>40.40865309925508</v>
       </c>
       <c r="F16" t="n">
         <v>10.5</v>
       </c>
       <c r="G16" t="n">
-        <v>166.1807530765141</v>
+        <v>161.6346123970203</v>
       </c>
       <c r="H16" t="n">
         <v>18.55</v>
       </c>
       <c r="I16" t="n">
-        <v>249.2711296147712</v>
+        <v>242.4519185955305</v>
       </c>
       <c r="J16" t="n">
         <v>31.5</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3615061530282</v>
+        <v>323.2692247940407</v>
       </c>
       <c r="L16" t="n">
         <v>49</v>
       </c>
       <c r="M16" t="n">
-        <v>415.4518826912853</v>
+        <v>404.0865309925508</v>
       </c>
       <c r="N16" t="n">
         <v>77</v>
       </c>
       <c r="O16" t="n">
-        <v>498.5422592295423</v>
+        <v>484.903837191061</v>
       </c>
       <c r="P16" t="n">
         <v>112</v>
       </c>
       <c r="Q16" t="n">
-        <v>581.6326357677993</v>
+        <v>565.7211433895711</v>
       </c>
       <c r="R16" t="n">
         <v>175</v>
       </c>
       <c r="S16" t="n">
-        <v>664.7230123060565</v>
+        <v>646.5384495880813</v>
       </c>
       <c r="T16" t="n">
         <v>287.0000000000001</v>
       </c>
       <c r="U16" t="n">
-        <v>747.8133888443135</v>
+        <v>727.3557557865915</v>
       </c>
       <c r="V16" t="n">
         <v>525</v>
       </c>
       <c r="W16" t="n">
-        <v>810.1311712480062</v>
+        <v>787.9687354354741</v>
       </c>
       <c r="X16" t="n">
         <v>875</v>
       </c>
       <c r="Y16" t="n">
-        <v>830.9037653825706</v>
+        <v>808.1730619851016</v>
       </c>
     </row>
     <row r="17">
@@ -1726,70 +1726,70 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.292581188604666</v>
+        <v>1.095258805999752</v>
       </c>
       <c r="E17" t="n">
-        <v>88.384264064734</v>
+        <v>87.76103314743024</v>
       </c>
       <c r="F17" t="n">
-        <v>12.92581188604665</v>
+        <v>10.95258805999753</v>
       </c>
       <c r="G17" t="n">
-        <v>353.537056258936</v>
+        <v>351.044132589721</v>
       </c>
       <c r="H17" t="n">
-        <v>25.09969209232597</v>
+        <v>19.77198776199332</v>
       </c>
       <c r="I17" t="n">
-        <v>530.3055843884039</v>
+        <v>526.5661988845814</v>
       </c>
       <c r="J17" t="n">
-        <v>46.05487131627993</v>
+        <v>34.21552835998515</v>
       </c>
       <c r="K17" t="n">
-        <v>707.074112517872</v>
+        <v>702.0882651794419</v>
       </c>
       <c r="L17" t="n">
-        <v>73.25811886046654</v>
+        <v>53.52588059997525</v>
       </c>
       <c r="M17" t="n">
-        <v>883.8426406473399</v>
+        <v>877.6103314743024</v>
       </c>
       <c r="N17" t="n">
-        <v>110.9613664046531</v>
+        <v>83.33623283996536</v>
       </c>
       <c r="O17" t="n">
-        <v>1060.611168776808</v>
+        <v>1053.132397769163</v>
       </c>
       <c r="P17" t="n">
-        <v>167.7936733790731</v>
+        <v>122.4095253799431</v>
       </c>
       <c r="Q17" t="n">
-        <v>1237.379696906276</v>
+        <v>1228.654464064023</v>
       </c>
       <c r="R17" t="n">
-        <v>257.4776041255863</v>
+        <v>190.3879940399159</v>
       </c>
       <c r="S17" t="n">
-        <v>1414.148225035744</v>
+        <v>1404.176530358884</v>
       </c>
       <c r="T17" t="n">
-        <v>427.697089390706</v>
+        <v>313.2501074798565</v>
       </c>
       <c r="U17" t="n">
-        <v>1590.916753165212</v>
+        <v>1579.698596653744</v>
       </c>
       <c r="V17" t="n">
-        <v>719.0649508837324</v>
+        <v>561.2070447998021</v>
       </c>
       <c r="W17" t="n">
-        <v>1723.493149262313</v>
+        <v>1711.34014637489</v>
       </c>
       <c r="X17" t="n">
-        <v>996.2905943023328</v>
+        <v>897.6294029998761</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.68528129468</v>
+        <v>1755.220662948605</v>
       </c>
     </row>
     <row r="18">
@@ -1806,67 +1806,67 @@
         <v>1.05</v>
       </c>
       <c r="E18" t="n">
-        <v>48.21302847604667</v>
+        <v>47.16390254876774</v>
       </c>
       <c r="F18" t="n">
         <v>10.5</v>
       </c>
       <c r="G18" t="n">
-        <v>192.8521139041867</v>
+        <v>188.6556101950709</v>
       </c>
       <c r="H18" t="n">
         <v>18.55</v>
       </c>
       <c r="I18" t="n">
-        <v>289.27817085628</v>
+        <v>282.9834152926064</v>
       </c>
       <c r="J18" t="n">
         <v>31.5</v>
       </c>
       <c r="K18" t="n">
-        <v>385.7042278083733</v>
+        <v>377.3112203901419</v>
       </c>
       <c r="L18" t="n">
         <v>49</v>
       </c>
       <c r="M18" t="n">
-        <v>482.1302847604666</v>
+        <v>471.6390254876773</v>
       </c>
       <c r="N18" t="n">
         <v>77</v>
       </c>
       <c r="O18" t="n">
-        <v>578.55634171256</v>
+        <v>565.9668305852127</v>
       </c>
       <c r="P18" t="n">
         <v>112</v>
       </c>
       <c r="Q18" t="n">
-        <v>674.9823986646533</v>
+        <v>660.2946356827482</v>
       </c>
       <c r="R18" t="n">
         <v>175</v>
       </c>
       <c r="S18" t="n">
-        <v>771.4084556167467</v>
+        <v>754.6224407802838</v>
       </c>
       <c r="T18" t="n">
         <v>287.0000000000001</v>
       </c>
       <c r="U18" t="n">
-        <v>867.83451256884</v>
+        <v>848.9502458778192</v>
       </c>
       <c r="V18" t="n">
         <v>525</v>
       </c>
       <c r="W18" t="n">
-        <v>940.1540552829099</v>
+        <v>919.6960997009708</v>
       </c>
       <c r="X18" t="n">
         <v>875</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.2605695209332</v>
+        <v>943.2780509753546</v>
       </c>
     </row>
     <row r="19">
@@ -1883,67 +1883,67 @@
         <v>1.05</v>
       </c>
       <c r="E19" t="n">
-        <v>50.12308977017614</v>
+        <v>48.8238491985064</v>
       </c>
       <c r="F19" t="n">
         <v>10.5</v>
       </c>
       <c r="G19" t="n">
-        <v>200.4923590807045</v>
+        <v>195.2953967940256</v>
       </c>
       <c r="H19" t="n">
         <v>18.55</v>
       </c>
       <c r="I19" t="n">
-        <v>300.7385386210568</v>
+        <v>292.9430951910384</v>
       </c>
       <c r="J19" t="n">
         <v>31.5</v>
       </c>
       <c r="K19" t="n">
-        <v>400.9847181614091</v>
+        <v>390.5907935880512</v>
       </c>
       <c r="L19" t="n">
         <v>49</v>
       </c>
       <c r="M19" t="n">
-        <v>501.2308977017614</v>
+        <v>488.238491985064</v>
       </c>
       <c r="N19" t="n">
         <v>77</v>
       </c>
       <c r="O19" t="n">
-        <v>601.4770772421136</v>
+        <v>585.8861903820767</v>
       </c>
       <c r="P19" t="n">
         <v>112</v>
       </c>
       <c r="Q19" t="n">
-        <v>701.7232567824659</v>
+        <v>683.5338887790896</v>
       </c>
       <c r="R19" t="n">
         <v>175</v>
       </c>
       <c r="S19" t="n">
-        <v>801.9694363228182</v>
+        <v>781.1815871761024</v>
       </c>
       <c r="T19" t="n">
         <v>287.0000000000001</v>
       </c>
       <c r="U19" t="n">
-        <v>902.2156158631705</v>
+        <v>878.8292855731153</v>
       </c>
       <c r="V19" t="n">
         <v>525</v>
       </c>
       <c r="W19" t="n">
-        <v>977.4002505184346</v>
+        <v>952.0650593708748</v>
       </c>
       <c r="X19" t="n">
         <v>875</v>
       </c>
       <c r="Y19" t="n">
-        <v>1002.461795403523</v>
+        <v>976.476983970128</v>
       </c>
     </row>
     <row r="20">
@@ -1957,70 +1957,70 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.092551404822272</v>
+        <v>1.05</v>
       </c>
       <c r="E20" t="n">
-        <v>80.93804554407411</v>
+        <v>79.45117892310563</v>
       </c>
       <c r="F20" t="n">
-        <v>10.92551404822272</v>
+        <v>10.5</v>
       </c>
       <c r="G20" t="n">
-        <v>323.7521821762965</v>
+        <v>317.8047156924225</v>
       </c>
       <c r="H20" t="n">
-        <v>19.69888793020134</v>
+        <v>18.55</v>
       </c>
       <c r="I20" t="n">
-        <v>485.6282732644447</v>
+        <v>476.7070735386337</v>
       </c>
       <c r="J20" t="n">
-        <v>34.05308428933631</v>
+        <v>31.5</v>
       </c>
       <c r="K20" t="n">
-        <v>647.5043643525929</v>
+        <v>635.609431384845</v>
       </c>
       <c r="L20" t="n">
-        <v>53.25514048222718</v>
+        <v>49</v>
       </c>
       <c r="M20" t="n">
-        <v>809.3804554407411</v>
+        <v>794.5117892310562</v>
       </c>
       <c r="N20" t="n">
-        <v>82.95719667511806</v>
+        <v>77</v>
       </c>
       <c r="O20" t="n">
-        <v>971.2565465288893</v>
+        <v>953.4141470772674</v>
       </c>
       <c r="P20" t="n">
-        <v>121.7868231091225</v>
+        <v>112</v>
       </c>
       <c r="Q20" t="n">
-        <v>1133.132637617038</v>
+        <v>1112.316504923479</v>
       </c>
       <c r="R20" t="n">
-        <v>189.4674776395725</v>
+        <v>175</v>
       </c>
       <c r="S20" t="n">
-        <v>1295.008728705186</v>
+        <v>1271.21886276969</v>
       </c>
       <c r="T20" t="n">
-        <v>311.6798147969176</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U20" t="n">
-        <v>1456.884819793334</v>
+        <v>1430.121220615901</v>
       </c>
       <c r="V20" t="n">
-        <v>559.0411238578174</v>
+        <v>525</v>
       </c>
       <c r="W20" t="n">
-        <v>1578.291888109445</v>
+        <v>1549.29798900056</v>
       </c>
       <c r="X20" t="n">
-        <v>896.2757024111359</v>
+        <v>875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1618.760910881482</v>
+        <v>1589.023578462112</v>
       </c>
     </row>
     <row r="21">
@@ -2037,67 +2037,67 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>139.314019022959</v>
+        <v>115.5491985616522</v>
       </c>
       <c r="F21" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G21" t="n">
-        <v>271.5658930947487</v>
+        <v>225.2700931510483</v>
       </c>
       <c r="H21" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I21" t="n">
-        <v>527.9074967087423</v>
+        <v>438.1257553249822</v>
       </c>
       <c r="J21" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K21" t="n">
-        <v>1015.667836978981</v>
+        <v>844.4686017976045</v>
       </c>
       <c r="L21" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M21" t="n">
-        <v>1882.918496737477</v>
+        <v>1575.52136480625</v>
       </c>
       <c r="N21" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O21" t="n">
-        <v>3111.397860646721</v>
+        <v>2650.536368617768</v>
       </c>
       <c r="P21" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q21" t="n">
-        <v>4057.747684397178</v>
+        <v>3555.889260228333</v>
       </c>
       <c r="R21" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S21" t="n">
-        <v>4281.047496725331</v>
+        <v>3805.162469079807</v>
       </c>
       <c r="T21" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U21" t="n">
-        <v>4288.864893682803</v>
+        <v>3816.33847720715</v>
       </c>
       <c r="V21" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W21" t="n">
-        <v>4288.874960270813</v>
+        <v>3816.361127652625</v>
       </c>
       <c r="X21" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y21" t="n">
-        <v>4288.874960293807</v>
+        <v>3816.361127777665</v>
       </c>
     </row>
     <row r="22">
@@ -2114,67 +2114,67 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>944.1983659688444</v>
+        <v>814.6408780603905</v>
       </c>
       <c r="F22" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G22" t="n">
-        <v>1837.976293474645</v>
+        <v>1585.413101439436</v>
       </c>
       <c r="H22" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I22" t="n">
-        <v>3554.263848541512</v>
+        <v>3063.206084637614</v>
       </c>
       <c r="J22" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K22" t="n">
-        <v>6708.853938572413</v>
+        <v>5764.078760223873</v>
       </c>
       <c r="L22" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M22" t="n">
-        <v>11684.33956351071</v>
+        <v>9944.464745162593</v>
       </c>
       <c r="N22" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O22" t="n">
-        <v>16685.44219759492</v>
+        <v>13945.56565615676</v>
       </c>
       <c r="P22" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q22" t="n">
-        <v>18581.10817346192</v>
+        <v>15330.77028409113</v>
       </c>
       <c r="R22" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S22" t="n">
-        <v>18722.39244549441</v>
+        <v>15420.18185677262</v>
       </c>
       <c r="T22" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U22" t="n">
-        <v>18723.10433974231</v>
+        <v>15420.53114008902</v>
       </c>
       <c r="V22" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W22" t="n">
-        <v>18723.10436274073</v>
+        <v>15420.53114698276</v>
       </c>
       <c r="X22" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y22" t="n">
-        <v>18723.10436274073</v>
+        <v>15420.53114698276</v>
       </c>
     </row>
     <row r="23">
@@ -2191,67 +2191,67 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>751.3279154596753</v>
+        <v>468.0695380816104</v>
       </c>
       <c r="F23" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G23" t="n">
-        <v>1463.166990439803</v>
+        <v>912.2479250121007</v>
       </c>
       <c r="H23" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I23" t="n">
-        <v>2834.053454801367</v>
+        <v>1772.152318668427</v>
       </c>
       <c r="J23" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K23" t="n">
-        <v>5380.802117303038</v>
+        <v>3400.979928326318</v>
       </c>
       <c r="L23" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M23" t="n">
-        <v>9544.85688902396</v>
+        <v>6250.693198520919</v>
       </c>
       <c r="N23" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O23" t="n">
-        <v>14156.30740290825</v>
+        <v>10090.49693886202</v>
       </c>
       <c r="P23" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q23" t="n">
-        <v>16260.45007654103</v>
+        <v>12728.64921610317</v>
       </c>
       <c r="R23" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S23" t="n">
-        <v>16471.03525299007</v>
+        <v>13241.7756290267</v>
       </c>
       <c r="T23" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U23" t="n">
-        <v>16472.80778625746</v>
+        <v>13254.91245819219</v>
       </c>
       <c r="V23" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W23" t="n">
-        <v>16472.8079403243</v>
+        <v>13254.92191569546</v>
       </c>
       <c r="X23" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y23" t="n">
-        <v>16472.80794032431</v>
+        <v>13254.92191570242</v>
       </c>
     </row>
     <row r="24">
@@ -2268,67 +2268,67 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>893.9061358926969</v>
+        <v>615.7849842283848</v>
       </c>
       <c r="F24" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G24" t="n">
-        <v>1740.634434548955</v>
+        <v>1199.807341422589</v>
       </c>
       <c r="H24" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I24" t="n">
-        <v>3370.068321961206</v>
+        <v>2328.340341219778</v>
       </c>
       <c r="J24" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K24" t="n">
-        <v>6388.738113593931</v>
+        <v>4451.229220977921</v>
       </c>
       <c r="L24" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M24" t="n">
-        <v>11277.99447391909</v>
+        <v>8075.531195333957</v>
       </c>
       <c r="N24" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O24" t="n">
-        <v>16554.25408902694</v>
+        <v>12613.98428716974</v>
       </c>
       <c r="P24" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q24" t="n">
-        <v>18843.43439483038</v>
+        <v>15272.73528500918</v>
       </c>
       <c r="R24" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S24" t="n">
-        <v>19054.87098978958</v>
+        <v>15670.48501537451</v>
       </c>
       <c r="T24" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U24" t="n">
-        <v>19056.42049721141</v>
+        <v>15677.09439547175</v>
       </c>
       <c r="V24" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W24" t="n">
-        <v>19056.42060037808</v>
+        <v>15677.09650289068</v>
       </c>
       <c r="X24" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y24" t="n">
-        <v>19056.42060037808</v>
+        <v>15677.09650289099</v>
       </c>
     </row>
     <row r="25">
@@ -2345,67 +2345,67 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1043.241317856047</v>
+        <v>739.2210233930971</v>
       </c>
       <c r="F25" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G25" t="n">
-        <v>2031.982007021104</v>
+        <v>1440.43389827258</v>
       </c>
       <c r="H25" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I25" t="n">
-        <v>3938.219052999713</v>
+        <v>2796.187796759185</v>
       </c>
       <c r="J25" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K25" t="n">
-        <v>7493.845463889943</v>
+        <v>5351.889892714481</v>
       </c>
       <c r="L25" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M25" t="n">
-        <v>13388.51141577784</v>
+        <v>9747.552445441688</v>
       </c>
       <c r="N25" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O25" t="n">
-        <v>20172.96175414237</v>
+        <v>15373.66281658986</v>
       </c>
       <c r="P25" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q25" t="n">
-        <v>23514.28149285769</v>
+        <v>18827.00353910148</v>
       </c>
       <c r="R25" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S25" t="n">
-        <v>23892.07853978858</v>
+        <v>19384.51751753447</v>
       </c>
       <c r="T25" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U25" t="n">
-        <v>23895.99708547533</v>
+        <v>19395.02954676722</v>
       </c>
       <c r="V25" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W25" t="n">
-        <v>23895.99759404419</v>
+        <v>19395.03380452599</v>
       </c>
       <c r="X25" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y25" t="n">
-        <v>23895.99759404421</v>
+        <v>19395.03380452701</v>
       </c>
     </row>
     <row r="26">
@@ -2419,70 +2419,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E26" t="n">
-        <v>924.7193152762172</v>
+        <v>1478.946204381338</v>
       </c>
       <c r="F26" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G26" t="n">
-        <v>1801.727047864748</v>
+        <v>5915.784817525354</v>
       </c>
       <c r="H26" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3496.321091642983</v>
+        <v>8873.677226288029</v>
       </c>
       <c r="J26" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>6683.414913000895</v>
+        <v>11831.56963505071</v>
       </c>
       <c r="L26" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M26" t="n">
-        <v>12120.90406785826</v>
+        <v>14789.46204381338</v>
       </c>
       <c r="N26" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O26" t="n">
-        <v>18916.38846768862</v>
+        <v>17747.35445257606</v>
       </c>
       <c r="P26" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q26" t="n">
-        <v>22880.7086396794</v>
+        <v>20705.24686133874</v>
       </c>
       <c r="R26" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S26" t="n">
-        <v>23469.73726133298</v>
+        <v>23663.13927010142</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U26" t="n">
-        <v>23479.41453531046</v>
+        <v>26621.03167886409</v>
       </c>
       <c r="V26" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W26" t="n">
-        <v>23479.41755514678</v>
+        <v>28839.4509854361</v>
       </c>
       <c r="X26" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y26" t="n">
-        <v>23479.41755514722</v>
+        <v>29578.92408762677</v>
       </c>
     </row>
     <row r="27">
@@ -2499,67 +2499,67 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>838.7467139169789</v>
+        <v>568.5749673439133</v>
       </c>
       <c r="F27" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G27" t="n">
-        <v>1634.286474779722</v>
+        <v>1108.420249378949</v>
       </c>
       <c r="H27" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I27" t="n">
-        <v>3171.899749967908</v>
+        <v>2155.38291000419</v>
       </c>
       <c r="J27" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K27" t="n">
-        <v>6066.801482360583</v>
+        <v>4151.728550602676</v>
       </c>
       <c r="L27" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M27" t="n">
-        <v>11024.05494102105</v>
+        <v>7728.367973245107</v>
       </c>
       <c r="N27" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O27" t="n">
-        <v>17287.02711288844</v>
+        <v>12917.99288677363</v>
       </c>
       <c r="P27" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q27" t="n">
-        <v>21025.85051867117</v>
+        <v>17149.89682746538</v>
       </c>
       <c r="R27" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S27" t="n">
-        <v>21602.62648850187</v>
+        <v>18251.34458632877</v>
       </c>
       <c r="T27" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U27" t="n">
-        <v>21612.71267696057</v>
+        <v>18296.47927469169</v>
       </c>
       <c r="V27" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W27" t="n">
-        <v>21612.71621966271</v>
+        <v>18296.55689621547</v>
       </c>
       <c r="X27" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y27" t="n">
-        <v>21612.71621966336</v>
+        <v>18296.55689652682</v>
       </c>
     </row>
     <row r="28">
@@ -2576,67 +2576,67 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>844.3077002982828</v>
+        <v>547.1449106505736</v>
       </c>
       <c r="F28" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G28" t="n">
-        <v>1645.734129273642</v>
+        <v>1066.912106994113</v>
       </c>
       <c r="H28" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I28" t="n">
-        <v>3198.608314916745</v>
+        <v>2076.65138356925</v>
       </c>
       <c r="J28" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K28" t="n">
-        <v>6149.694514373624</v>
+        <v>4014.36739930229</v>
       </c>
       <c r="L28" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M28" t="n">
-        <v>11373.38278967317</v>
+        <v>7567.561723344489</v>
       </c>
       <c r="N28" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O28" t="n">
-        <v>18670.02831861302</v>
+        <v>13127.86540428181</v>
       </c>
       <c r="P28" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q28" t="n">
-        <v>24110.97796996982</v>
+        <v>18603.0219677857</v>
       </c>
       <c r="R28" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S28" t="n">
-        <v>25325.57123308855</v>
+        <v>20600.40936712674</v>
       </c>
       <c r="T28" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U28" t="n">
-        <v>25364.45582855402</v>
+        <v>20740.5001210654</v>
       </c>
       <c r="V28" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W28" t="n">
-        <v>25364.49827166453</v>
+        <v>20741.13424206072</v>
       </c>
       <c r="X28" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y28" t="n">
-        <v>25364.4982717348</v>
+        <v>20741.1342587089</v>
       </c>
     </row>
     <row r="29">
@@ -2653,67 +2653,67 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.493045784752</v>
+        <v>906.7354577270694</v>
       </c>
       <c r="F29" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G29" t="n">
-        <v>2448.976156983413</v>
+        <v>1767.688549061258</v>
       </c>
       <c r="H29" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I29" t="n">
-        <v>4758.342472166669</v>
+        <v>3437.618271226918</v>
       </c>
       <c r="J29" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K29" t="n">
-        <v>9138.304649200645</v>
+        <v>6623.399545530432</v>
       </c>
       <c r="L29" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M29" t="n">
-        <v>16836.05497759232</v>
+        <v>12341.14848363717</v>
       </c>
       <c r="N29" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O29" t="n">
-        <v>27353.34823624032</v>
+        <v>20684.48960919736</v>
       </c>
       <c r="P29" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q29" t="n">
-        <v>34808.90401983507</v>
+        <v>27581.11616283008</v>
       </c>
       <c r="R29" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S29" t="n">
-        <v>36336.97087075378</v>
+        <v>29419.02621282085</v>
       </c>
       <c r="T29" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U29" t="n">
-        <v>36379.57089052513</v>
+        <v>29497.24097172102</v>
       </c>
       <c r="V29" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W29" t="n">
-        <v>36379.6068474745</v>
+        <v>29497.3851093435</v>
       </c>
       <c r="X29" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y29" t="n">
-        <v>36379.60684751057</v>
+        <v>29497.38511000486</v>
       </c>
     </row>
     <row r="30">
@@ -2727,70 +2727,70 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>1.525809526101601</v>
       </c>
       <c r="E30" t="n">
-        <v>420.8343529178615</v>
+        <v>542.1995214559793</v>
       </c>
       <c r="F30" t="n">
-        <v>1.951232399646889</v>
+        <v>15.25809526101601</v>
       </c>
       <c r="G30" t="n">
-        <v>820.7575208015123</v>
+        <v>2168.798085823917</v>
       </c>
       <c r="H30" t="n">
-        <v>3.807307877431757</v>
+        <v>31.77428578304801</v>
       </c>
       <c r="I30" t="n">
-        <v>1598.613312383487</v>
+        <v>3253.197128735876</v>
       </c>
       <c r="J30" t="n">
-        <v>7.428942485875671</v>
+        <v>60.04857156609604</v>
       </c>
       <c r="K30" t="n">
-        <v>3098.124678878091</v>
+        <v>4337.596171647834</v>
       </c>
       <c r="L30" t="n">
-        <v>14.49559327355391</v>
+        <v>96.58095261016007</v>
       </c>
       <c r="M30" t="n">
-        <v>5894.058231620476</v>
+        <v>5421.995214559793</v>
       </c>
       <c r="N30" t="n">
-        <v>28.28427124746191</v>
+        <v>146.1295241762561</v>
       </c>
       <c r="O30" t="n">
-        <v>10523.32514446012</v>
+        <v>6506.394257471751</v>
       </c>
       <c r="P30" t="n">
-        <v>55.18918645844859</v>
+        <v>221.4361910033682</v>
       </c>
       <c r="Q30" t="n">
-        <v>15832.19130026525</v>
+        <v>7590.793300383709</v>
       </c>
       <c r="R30" t="n">
-        <v>107.6869287278782</v>
+        <v>339.2914293965763</v>
       </c>
       <c r="S30" t="n">
-        <v>18427.98799974247</v>
+        <v>8675.192343295668</v>
       </c>
       <c r="T30" t="n">
-        <v>210.1222243523014</v>
+        <v>552.9047630508004</v>
       </c>
       <c r="U30" t="n">
-        <v>18718.11816084078</v>
+        <v>9759.591386207627</v>
       </c>
       <c r="V30" t="n">
-        <v>409.9972920420831</v>
+        <v>893.0666682711203</v>
       </c>
       <c r="W30" t="n">
-        <v>18721.0687485998</v>
+        <v>10572.8906683916</v>
       </c>
       <c r="X30" t="n">
-        <v>800.0000000000003</v>
+        <v>1175.809526101601</v>
       </c>
       <c r="Y30" t="n">
-        <v>18721.06911736049</v>
+        <v>10843.99042911959</v>
       </c>
     </row>
     <row r="31">
@@ -2804,70 +2804,70 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.700768598913437</v>
+        <v>1.465244484865693</v>
       </c>
       <c r="E31" t="n">
-        <v>487.79447777837</v>
+        <v>482.633594789638</v>
       </c>
       <c r="F31" t="n">
-        <v>17.00768598913437</v>
+        <v>14.65244484865693</v>
       </c>
       <c r="G31" t="n">
-        <v>1951.17791111348</v>
+        <v>1930.534379158552</v>
       </c>
       <c r="H31" t="n">
-        <v>37.02305796740309</v>
+        <v>29.95733454597079</v>
       </c>
       <c r="I31" t="n">
-        <v>2926.76686667022</v>
+        <v>2895.801568737827</v>
       </c>
       <c r="J31" t="n">
-        <v>70.5461159348062</v>
+        <v>56.41466909194158</v>
       </c>
       <c r="K31" t="n">
-        <v>3902.35582222696</v>
+        <v>3861.068758317104</v>
       </c>
       <c r="L31" t="n">
-        <v>114.0768598913437</v>
+        <v>90.5244484865693</v>
       </c>
       <c r="M31" t="n">
-        <v>4877.944777783699</v>
+        <v>4826.335947896379</v>
       </c>
       <c r="N31" t="n">
-        <v>174.1229758261498</v>
+        <v>136.4391175785109</v>
       </c>
       <c r="O31" t="n">
-        <v>5853.53373334044</v>
+        <v>5791.603137475655</v>
       </c>
       <c r="P31" t="n">
-        <v>261.6767777500904</v>
+        <v>207.5062315191093</v>
       </c>
       <c r="Q31" t="n">
-        <v>6829.122688897179</v>
+        <v>6756.87032705493</v>
       </c>
       <c r="R31" t="n">
-        <v>402.2766956088371</v>
+        <v>317.4880145516495</v>
       </c>
       <c r="S31" t="n">
-        <v>7804.71164445392</v>
+        <v>7722.137516634208</v>
       </c>
       <c r="T31" t="n">
-        <v>640.3842994567183</v>
+        <v>522.6222424328464</v>
       </c>
       <c r="U31" t="n">
-        <v>8780.30060001066</v>
+        <v>8687.404706213483</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.538019239405</v>
+        <v>850.6711394059851</v>
       </c>
       <c r="W31" t="n">
-        <v>9511.992316678214</v>
+        <v>9411.35509839794</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.768598913437</v>
+        <v>1115.244484865693</v>
       </c>
       <c r="Y31" t="n">
-        <v>9755.889555567399</v>
+        <v>9652.671895792759</v>
       </c>
     </row>
     <row r="32">
@@ -2881,70 +2881,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.071236952326652</v>
+        <v>1.05</v>
       </c>
       <c r="E32" t="n">
-        <v>171.0217905482527</v>
+        <v>168.8577663602305</v>
       </c>
       <c r="F32" t="n">
-        <v>10.71236952326652</v>
+        <v>10.5</v>
       </c>
       <c r="G32" t="n">
-        <v>684.0871621930106</v>
+        <v>675.4310654409221</v>
       </c>
       <c r="H32" t="n">
-        <v>19.1233977128196</v>
+        <v>18.55</v>
       </c>
       <c r="I32" t="n">
-        <v>1026.130743289516</v>
+        <v>1013.146598161383</v>
       </c>
       <c r="J32" t="n">
-        <v>32.7742171395991</v>
+        <v>31.5</v>
       </c>
       <c r="K32" t="n">
-        <v>1368.174324386021</v>
+        <v>1350.862130881844</v>
       </c>
       <c r="L32" t="n">
-        <v>51.12369523266518</v>
+        <v>49</v>
       </c>
       <c r="M32" t="n">
-        <v>1710.217905482526</v>
+        <v>1688.577663602305</v>
       </c>
       <c r="N32" t="n">
-        <v>79.97317332573125</v>
+        <v>77</v>
       </c>
       <c r="O32" t="n">
-        <v>2052.261486579031</v>
+        <v>2026.293196322766</v>
       </c>
       <c r="P32" t="n">
-        <v>116.8844990351299</v>
+        <v>112</v>
       </c>
       <c r="Q32" t="n">
-        <v>2394.305067675537</v>
+        <v>2364.008729043227</v>
       </c>
       <c r="R32" t="n">
-        <v>182.2205637910616</v>
+        <v>175</v>
       </c>
       <c r="S32" t="n">
-        <v>2736.348648772042</v>
+        <v>2701.724261763688</v>
       </c>
       <c r="T32" t="n">
-        <v>299.317432349458</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U32" t="n">
-        <v>3078.392229868548</v>
+        <v>3039.439794484149</v>
       </c>
       <c r="V32" t="n">
-        <v>541.9895618613214</v>
+        <v>525</v>
       </c>
       <c r="W32" t="n">
-        <v>3334.924915690926</v>
+        <v>3292.726444024495</v>
       </c>
       <c r="X32" t="n">
-        <v>885.618476163326</v>
+        <v>875</v>
       </c>
       <c r="Y32" t="n">
-        <v>3420.435810965053</v>
+        <v>3377.15532720461</v>
       </c>
     </row>
     <row r="33">
@@ -2958,70 +2958,70 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="E33" t="n">
-        <v>628.0053806295746</v>
+        <v>926.8279811183038</v>
       </c>
       <c r="F33" t="n">
-        <v>1.951232399646889</v>
+        <v>17.5</v>
       </c>
       <c r="G33" t="n">
-        <v>1224.659588446093</v>
+        <v>3707.311924473215</v>
       </c>
       <c r="H33" t="n">
-        <v>3.807307877431757</v>
+        <v>38.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2384.22886948738</v>
+        <v>5560.967886709823</v>
       </c>
       <c r="J33" t="n">
-        <v>7.428942485875671</v>
+        <v>73.50000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>4612.827709724837</v>
+        <v>7414.62384894643</v>
       </c>
       <c r="L33" t="n">
-        <v>14.49559327355391</v>
+        <v>119</v>
       </c>
       <c r="M33" t="n">
-        <v>8722.053691259282</v>
+        <v>9268.279811183038</v>
       </c>
       <c r="N33" t="n">
-        <v>28.28427124746191</v>
+        <v>182</v>
       </c>
       <c r="O33" t="n">
-        <v>15272.35096224386</v>
+        <v>11121.93577341965</v>
       </c>
       <c r="P33" t="n">
-        <v>55.18918645844859</v>
+        <v>273</v>
       </c>
       <c r="Q33" t="n">
-        <v>22043.95924057973</v>
+        <v>12975.59173565625</v>
       </c>
       <c r="R33" t="n">
-        <v>107.6869287278782</v>
+        <v>420</v>
       </c>
       <c r="S33" t="n">
-        <v>24750.08986843753</v>
+        <v>14829.24769789286</v>
       </c>
       <c r="T33" t="n">
-        <v>210.1222243523014</v>
+        <v>665</v>
       </c>
       <c r="U33" t="n">
-        <v>24969.43174044216</v>
+        <v>16682.90366012947</v>
       </c>
       <c r="V33" t="n">
-        <v>409.9972920420831</v>
+        <v>1050</v>
       </c>
       <c r="W33" t="n">
-        <v>24970.71229813382</v>
+        <v>18073.14563180692</v>
       </c>
       <c r="X33" t="n">
-        <v>800.0000000000003</v>
+        <v>1400</v>
       </c>
       <c r="Y33" t="n">
-        <v>24970.71235312469</v>
+        <v>18536.55962236608</v>
       </c>
     </row>
     <row r="34">
@@ -3038,67 +3038,67 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1345.322386530908</v>
+        <v>994.7685039396988</v>
       </c>
       <c r="F34" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G34" t="n">
-        <v>2622.887581488267</v>
+        <v>1939.789648990993</v>
       </c>
       <c r="H34" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I34" t="n">
-        <v>5101.973199033445</v>
+        <v>3775.840085263288</v>
       </c>
       <c r="J34" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K34" t="n">
-        <v>9839.173860662951</v>
+        <v>7300.574122025957</v>
       </c>
       <c r="L34" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M34" t="n">
-        <v>18391.98983521409</v>
+        <v>13772.6602334969</v>
       </c>
       <c r="N34" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O34" t="n">
-        <v>31112.43959783117</v>
+        <v>23946.50947108559</v>
       </c>
       <c r="P34" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q34" t="n">
-        <v>42126.44980970342</v>
+        <v>34083.43321924053</v>
       </c>
       <c r="R34" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S34" t="n">
-        <v>45310.6222741637</v>
+        <v>37863.43296001546</v>
       </c>
       <c r="T34" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U34" t="n">
-        <v>45464.94168931798</v>
+        <v>38137.93293237692</v>
       </c>
       <c r="V34" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W34" t="n">
-        <v>45465.30197368405</v>
+        <v>38139.25417368802</v>
       </c>
       <c r="X34" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y34" t="n">
-        <v>45465.30197630245</v>
+        <v>38139.25421275455</v>
       </c>
     </row>
     <row r="35">
@@ -3112,70 +3112,70 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>1.520870124730657</v>
       </c>
       <c r="E35" t="n">
-        <v>462.7721669531539</v>
+        <v>632.9203052057326</v>
       </c>
       <c r="F35" t="n">
-        <v>1.951232399646889</v>
+        <v>15.20870124730657</v>
       </c>
       <c r="G35" t="n">
-        <v>902.6790581605367</v>
+        <v>2531.68122082293</v>
       </c>
       <c r="H35" t="n">
-        <v>3.807307877431757</v>
+        <v>31.62610374191972</v>
       </c>
       <c r="I35" t="n">
-        <v>1759.134500363581</v>
+        <v>3797.521831234395</v>
       </c>
       <c r="J35" t="n">
-        <v>7.428942485875671</v>
+        <v>59.75220748383944</v>
       </c>
       <c r="K35" t="n">
-        <v>3416.238094534586</v>
+        <v>5063.362441645861</v>
       </c>
       <c r="L35" t="n">
-        <v>14.49559327355391</v>
+        <v>96.08701247306574</v>
       </c>
       <c r="M35" t="n">
-        <v>6548.43617580144</v>
+        <v>6329.203052057325</v>
       </c>
       <c r="N35" t="n">
-        <v>28.28427124746191</v>
+        <v>145.3392199569052</v>
       </c>
       <c r="O35" t="n">
-        <v>11987.10563008828</v>
+        <v>7595.04366246879</v>
       </c>
       <c r="P35" t="n">
-        <v>55.18918645844859</v>
+        <v>220.3001286880512</v>
       </c>
       <c r="Q35" t="n">
-        <v>19149.1471830594</v>
+        <v>8860.884272880256</v>
       </c>
       <c r="R35" t="n">
-        <v>107.6869287278782</v>
+        <v>337.5132449030367</v>
       </c>
       <c r="S35" t="n">
-        <v>23825.74128113274</v>
+        <v>10126.72488329172</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1222243523014</v>
+        <v>550.4350623653287</v>
       </c>
       <c r="U35" t="n">
-        <v>24661.63266252984</v>
+        <v>11392.56549370318</v>
       </c>
       <c r="V35" t="n">
-        <v>409.9972920420831</v>
+        <v>889.60908731146</v>
       </c>
       <c r="W35" t="n">
-        <v>24680.27022052712</v>
+        <v>12341.94595151178</v>
       </c>
       <c r="X35" t="n">
-        <v>800.0000000000003</v>
+        <v>1170.870124730657</v>
       </c>
       <c r="Y35" t="n">
-        <v>24680.28057479898</v>
+        <v>12658.40610411465</v>
       </c>
     </row>
     <row r="36">
@@ -3189,70 +3189,70 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1.75</v>
+        <v>1.726321802881008</v>
       </c>
       <c r="E36" t="n">
-        <v>941.2269562516105</v>
+        <v>937.8237991123448</v>
       </c>
       <c r="F36" t="n">
-        <v>17.5</v>
+        <v>17.26321802881008</v>
       </c>
       <c r="G36" t="n">
-        <v>3764.907825006442</v>
+        <v>3751.295196449379</v>
       </c>
       <c r="H36" t="n">
-        <v>38.5</v>
+        <v>37.78965408643023</v>
       </c>
       <c r="I36" t="n">
-        <v>5647.361737509663</v>
+        <v>5626.942794674068</v>
       </c>
       <c r="J36" t="n">
-        <v>73.50000000000001</v>
+        <v>72.07930817286046</v>
       </c>
       <c r="K36" t="n">
-        <v>7529.815650012884</v>
+        <v>7502.590392898758</v>
       </c>
       <c r="L36" t="n">
-        <v>119</v>
+        <v>116.6321802881008</v>
       </c>
       <c r="M36" t="n">
-        <v>9412.269562516105</v>
+        <v>9378.237991123448</v>
       </c>
       <c r="N36" t="n">
-        <v>182</v>
+        <v>178.2114884609612</v>
       </c>
       <c r="O36" t="n">
-        <v>11294.72347501933</v>
+        <v>11253.88558934814</v>
       </c>
       <c r="P36" t="n">
-        <v>273</v>
+        <v>267.5540146626318</v>
       </c>
       <c r="Q36" t="n">
-        <v>13177.17738752255</v>
+        <v>13129.53318757283</v>
       </c>
       <c r="R36" t="n">
-        <v>420</v>
+        <v>411.4758490371627</v>
       </c>
       <c r="S36" t="n">
-        <v>15059.63130002577</v>
+        <v>15005.18078579752</v>
       </c>
       <c r="T36" t="n">
-        <v>665</v>
+        <v>653.1609014405038</v>
       </c>
       <c r="U36" t="n">
-        <v>16942.08521252899</v>
+        <v>16880.82838402221</v>
       </c>
       <c r="V36" t="n">
-        <v>1050</v>
+        <v>1033.425262016706</v>
       </c>
       <c r="W36" t="n">
-        <v>18353.92564690641</v>
+        <v>18287.56408269072</v>
       </c>
       <c r="X36" t="n">
-        <v>1400</v>
+        <v>1376.321802881008</v>
       </c>
       <c r="Y36" t="n">
-        <v>18824.53912503221</v>
+        <v>18756.4759822469</v>
       </c>
     </row>
     <row r="37">
@@ -3266,70 +3266,70 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>1.53124100449908</v>
       </c>
       <c r="E37" t="n">
-        <v>487.8574002671367</v>
+        <v>684.3811601275561</v>
       </c>
       <c r="F37" t="n">
-        <v>1.951232399646889</v>
+        <v>15.3124100449908</v>
       </c>
       <c r="G37" t="n">
-        <v>951.6408736174644</v>
+        <v>2737.524640510224</v>
       </c>
       <c r="H37" t="n">
-        <v>3.807307877431757</v>
+        <v>31.93723013497239</v>
       </c>
       <c r="I37" t="n">
-        <v>1854.778955711186</v>
+        <v>4106.286960765337</v>
       </c>
       <c r="J37" t="n">
-        <v>7.428942485875671</v>
+        <v>60.37446026994477</v>
       </c>
       <c r="K37" t="n">
-        <v>3603.652567361725</v>
+        <v>5475.049281020449</v>
       </c>
       <c r="L37" t="n">
-        <v>14.49559327355391</v>
+        <v>97.12410044990796</v>
       </c>
       <c r="M37" t="n">
-        <v>6919.542965443232</v>
+        <v>6843.811601275561</v>
       </c>
       <c r="N37" t="n">
-        <v>28.28427124746191</v>
+        <v>146.9985607198527</v>
       </c>
       <c r="O37" t="n">
-        <v>12740.70442792607</v>
+        <v>8212.573921530673</v>
       </c>
       <c r="P37" t="n">
-        <v>55.18918645844859</v>
+        <v>222.6854310347883</v>
       </c>
       <c r="Q37" t="n">
-        <v>20666.84162284768</v>
+        <v>9581.336241785784</v>
       </c>
       <c r="R37" t="n">
-        <v>107.6869287278782</v>
+        <v>341.2467616196686</v>
       </c>
       <c r="S37" t="n">
-        <v>26242.17759915199</v>
+        <v>10950.0985620409</v>
       </c>
       <c r="T37" t="n">
-        <v>210.1222243523014</v>
+        <v>555.6205022495399</v>
       </c>
       <c r="U37" t="n">
-        <v>27370.11646823052</v>
+        <v>12318.86088229601</v>
       </c>
       <c r="V37" t="n">
-        <v>409.9972920420831</v>
+        <v>896.8687031493557</v>
       </c>
       <c r="W37" t="n">
-        <v>27400.9040131797</v>
+        <v>13345.43262248734</v>
       </c>
       <c r="X37" t="n">
-        <v>800.0000000000003</v>
+        <v>1181.24100449908</v>
       </c>
       <c r="Y37" t="n">
-        <v>27400.92899553424</v>
+        <v>13687.62320255112</v>
       </c>
     </row>
     <row r="38">
@@ -3346,67 +3346,67 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1042.897151278244</v>
+        <v>742.6532835448664</v>
       </c>
       <c r="F38" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G38" t="n">
-        <v>2033.897390701917</v>
+        <v>1448.579107584565</v>
       </c>
       <c r="H38" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I38" t="n">
-        <v>3960.922901285614</v>
+        <v>2822.73310421897</v>
       </c>
       <c r="J38" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K38" t="n">
-        <v>7672.232092736747</v>
+        <v>5479.932080409755</v>
       </c>
       <c r="L38" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M38" t="n">
-        <v>14568.04679179484</v>
+        <v>10491.43925568929</v>
       </c>
       <c r="N38" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O38" t="n">
-        <v>25849.57638933795</v>
+        <v>19125.97621313041</v>
       </c>
       <c r="P38" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q38" t="n">
-        <v>38363.23113590751</v>
+        <v>30234.93854575814</v>
       </c>
       <c r="R38" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S38" t="n">
-        <v>44090.99664617028</v>
+        <v>37130.22400134992</v>
       </c>
       <c r="T38" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U38" t="n">
-        <v>44667.11512425981</v>
+        <v>38263.96887567959</v>
       </c>
       <c r="V38" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W38" t="n">
-        <v>44672.00634805242</v>
+        <v>38286.00210997732</v>
       </c>
       <c r="X38" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y38" t="n">
-        <v>44672.00678028871</v>
+        <v>38286.01155883261</v>
       </c>
     </row>
     <row r="39">
@@ -3420,70 +3420,70 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1.75</v>
+        <v>1.662524412731494</v>
       </c>
       <c r="E39" t="n">
-        <v>958.9749350550715</v>
+        <v>954.2391355329843</v>
       </c>
       <c r="F39" t="n">
-        <v>17.5</v>
+        <v>16.62524412731494</v>
       </c>
       <c r="G39" t="n">
-        <v>3835.899740220286</v>
+        <v>3816.956542131937</v>
       </c>
       <c r="H39" t="n">
-        <v>38.5</v>
+        <v>35.87573238194481</v>
       </c>
       <c r="I39" t="n">
-        <v>5753.849610330428</v>
+        <v>5725.434813197905</v>
       </c>
       <c r="J39" t="n">
-        <v>73.50000000000001</v>
+        <v>68.25146476388964</v>
       </c>
       <c r="K39" t="n">
-        <v>7671.799480440572</v>
+        <v>7633.913084263874</v>
       </c>
       <c r="L39" t="n">
-        <v>119</v>
+        <v>110.2524412731494</v>
       </c>
       <c r="M39" t="n">
-        <v>9589.749350550714</v>
+        <v>9542.391355329843</v>
       </c>
       <c r="N39" t="n">
-        <v>182</v>
+        <v>168.003906037039</v>
       </c>
       <c r="O39" t="n">
-        <v>11507.69922066086</v>
+        <v>11450.86962639581</v>
       </c>
       <c r="P39" t="n">
-        <v>273</v>
+        <v>252.8806149282436</v>
       </c>
       <c r="Q39" t="n">
-        <v>13425.649090771</v>
+        <v>13359.34789746178</v>
       </c>
       <c r="R39" t="n">
-        <v>420</v>
+        <v>388.5087885833378</v>
       </c>
       <c r="S39" t="n">
-        <v>15343.59896088114</v>
+        <v>15267.82616852775</v>
       </c>
       <c r="T39" t="n">
-        <v>665</v>
+        <v>621.262206365747</v>
       </c>
       <c r="U39" t="n">
-        <v>17261.54883099128</v>
+        <v>17176.30443959372</v>
       </c>
       <c r="V39" t="n">
-        <v>1050</v>
+        <v>988.7670889120458</v>
       </c>
       <c r="W39" t="n">
-        <v>18700.01123357389</v>
+        <v>18607.66314289319</v>
       </c>
       <c r="X39" t="n">
-        <v>1400</v>
+        <v>1312.524412731494</v>
       </c>
       <c r="Y39" t="n">
-        <v>19179.49870110143</v>
+        <v>19084.78271065969</v>
       </c>
     </row>
     <row r="40">
@@ -3497,70 +3497,70 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.75</v>
+        <v>1.557610535606083</v>
       </c>
       <c r="E40" t="n">
-        <v>770.3065594787306</v>
+        <v>765.0878182837993</v>
       </c>
       <c r="F40" t="n">
-        <v>17.5</v>
+        <v>15.57610535606083</v>
       </c>
       <c r="G40" t="n">
-        <v>3081.226237914922</v>
+        <v>3060.351273135197</v>
       </c>
       <c r="H40" t="n">
-        <v>38.5</v>
+        <v>32.72831606818249</v>
       </c>
       <c r="I40" t="n">
-        <v>4621.839356872383</v>
+        <v>4590.526909702795</v>
       </c>
       <c r="J40" t="n">
-        <v>73.50000000000001</v>
+        <v>61.95663213636497</v>
       </c>
       <c r="K40" t="n">
-        <v>6162.452475829845</v>
+        <v>6120.702546270394</v>
       </c>
       <c r="L40" t="n">
-        <v>119</v>
+        <v>99.7610535606083</v>
       </c>
       <c r="M40" t="n">
-        <v>7703.065594787306</v>
+        <v>7650.878182837992</v>
       </c>
       <c r="N40" t="n">
-        <v>182</v>
+        <v>151.2176856969732</v>
       </c>
       <c r="O40" t="n">
-        <v>9243.678713744766</v>
+        <v>9181.05381940559</v>
       </c>
       <c r="P40" t="n">
-        <v>273</v>
+        <v>228.7504231893991</v>
       </c>
       <c r="Q40" t="n">
-        <v>10784.29183270223</v>
+        <v>10711.22945597319</v>
       </c>
       <c r="R40" t="n">
-        <v>420</v>
+        <v>350.7397928181899</v>
       </c>
       <c r="S40" t="n">
-        <v>12324.90495165969</v>
+        <v>12241.40509254079</v>
       </c>
       <c r="T40" t="n">
-        <v>665</v>
+        <v>568.8052678030414</v>
       </c>
       <c r="U40" t="n">
-        <v>13865.51807061715</v>
+        <v>13771.58072910839</v>
       </c>
       <c r="V40" t="n">
-        <v>1050</v>
+        <v>915.327374924258</v>
       </c>
       <c r="W40" t="n">
-        <v>15020.97790983525</v>
+        <v>14919.21245653409</v>
       </c>
       <c r="X40" t="n">
-        <v>1400</v>
+        <v>1207.610535606083</v>
       </c>
       <c r="Y40" t="n">
-        <v>15406.13118957461</v>
+        <v>15301.75636567598</v>
       </c>
     </row>
     <row r="41">
@@ -3574,70 +3574,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.47615937786921</v>
+        <v>1.31881404143945</v>
       </c>
       <c r="E41" t="n">
-        <v>477.2391184424653</v>
+        <v>476.0428462775182</v>
       </c>
       <c r="F41" t="n">
-        <v>14.7615937786921</v>
+        <v>13.18814041439449</v>
       </c>
       <c r="G41" t="n">
-        <v>1908.956473769861</v>
+        <v>1904.171385110073</v>
       </c>
       <c r="H41" t="n">
-        <v>30.2847813360763</v>
+        <v>25.80797911886513</v>
       </c>
       <c r="I41" t="n">
-        <v>2863.434710654791</v>
+        <v>2856.257077665109</v>
       </c>
       <c r="J41" t="n">
-        <v>57.06956267215259</v>
+        <v>47.62884248636696</v>
       </c>
       <c r="K41" t="n">
-        <v>3817.912947539722</v>
+        <v>3808.342770220145</v>
       </c>
       <c r="L41" t="n">
-        <v>91.61593778692098</v>
+        <v>75.88140414394495</v>
       </c>
       <c r="M41" t="n">
-        <v>4772.391184424652</v>
+        <v>4760.428462775181</v>
       </c>
       <c r="N41" t="n">
-        <v>138.1855004590736</v>
+        <v>114.6339658015229</v>
       </c>
       <c r="O41" t="n">
-        <v>5726.869421309582</v>
+        <v>5712.514155330217</v>
       </c>
       <c r="P41" t="n">
-        <v>210.0166569099183</v>
+        <v>173.8272295310734</v>
       </c>
       <c r="Q41" t="n">
-        <v>6681.347658194512</v>
+        <v>6664.599847885253</v>
       </c>
       <c r="R41" t="n">
-        <v>321.4173760329155</v>
+        <v>266.3967740894129</v>
       </c>
       <c r="S41" t="n">
-        <v>7635.825895079444</v>
+        <v>7616.68554044029</v>
       </c>
       <c r="T41" t="n">
-        <v>528.079688934605</v>
+        <v>442.9121440348807</v>
       </c>
       <c r="U41" t="n">
-        <v>8590.304131964374</v>
+        <v>8568.771232995326</v>
       </c>
       <c r="V41" t="n">
-        <v>858.311564508447</v>
+        <v>740.0512331515596</v>
       </c>
       <c r="W41" t="n">
-        <v>9306.162809628071</v>
+        <v>9282.835502411603</v>
       </c>
       <c r="X41" t="n">
-        <v>1126.15937786921</v>
+        <v>1009.407020719725</v>
       </c>
       <c r="Y41" t="n">
-        <v>9544.782368849304</v>
+        <v>9520.856925550363</v>
       </c>
     </row>
     <row r="42">
@@ -3651,70 +3651,70 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1.75</v>
+        <v>1.648782486874047</v>
       </c>
       <c r="E42" t="n">
-        <v>984.7802905163544</v>
+        <v>980.0842282969821</v>
       </c>
       <c r="F42" t="n">
-        <v>17.5</v>
+        <v>16.48782486874047</v>
       </c>
       <c r="G42" t="n">
-        <v>3939.121162065418</v>
+        <v>3920.336913187929</v>
       </c>
       <c r="H42" t="n">
-        <v>38.5</v>
+        <v>35.4634746062214</v>
       </c>
       <c r="I42" t="n">
-        <v>5908.681743098126</v>
+        <v>5880.505369781892</v>
       </c>
       <c r="J42" t="n">
-        <v>73.50000000000001</v>
+        <v>67.42694921244279</v>
       </c>
       <c r="K42" t="n">
-        <v>7878.242324130835</v>
+        <v>7840.673826375857</v>
       </c>
       <c r="L42" t="n">
-        <v>119</v>
+        <v>108.8782486874047</v>
       </c>
       <c r="M42" t="n">
-        <v>9847.802905163544</v>
+        <v>9800.842282969821</v>
       </c>
       <c r="N42" t="n">
-        <v>182</v>
+        <v>165.8051978998475</v>
       </c>
       <c r="O42" t="n">
-        <v>11817.36348619625</v>
+        <v>11761.01073956378</v>
       </c>
       <c r="P42" t="n">
-        <v>273</v>
+        <v>249.7199719810307</v>
       </c>
       <c r="Q42" t="n">
-        <v>13786.92406722896</v>
+        <v>13721.17919615775</v>
       </c>
       <c r="R42" t="n">
-        <v>420</v>
+        <v>383.5616952746568</v>
       </c>
       <c r="S42" t="n">
-        <v>15756.48464826167</v>
+        <v>15681.34765275171</v>
       </c>
       <c r="T42" t="n">
-        <v>665</v>
+        <v>614.3912434370234</v>
       </c>
       <c r="U42" t="n">
-        <v>17726.04522929438</v>
+        <v>17641.51610934568</v>
       </c>
       <c r="V42" t="n">
-        <v>1050</v>
+        <v>979.1477408118327</v>
       </c>
       <c r="W42" t="n">
-        <v>19203.21566506891</v>
+        <v>19111.64245179115</v>
       </c>
       <c r="X42" t="n">
-        <v>1400</v>
+        <v>1298.782486874047</v>
       </c>
       <c r="Y42" t="n">
-        <v>19695.60581032709</v>
+        <v>19601.68456593964</v>
       </c>
     </row>
     <row r="43">
@@ -3728,70 +3728,70 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.75</v>
+        <v>1.640890805101272</v>
       </c>
       <c r="E43" t="n">
-        <v>1015.866725495239</v>
+        <v>1010.717718331242</v>
       </c>
       <c r="F43" t="n">
-        <v>17.5</v>
+        <v>16.40890805101272</v>
       </c>
       <c r="G43" t="n">
-        <v>4063.466901980957</v>
+        <v>4042.87087332497</v>
       </c>
       <c r="H43" t="n">
-        <v>38.5</v>
+        <v>35.22672415303816</v>
       </c>
       <c r="I43" t="n">
-        <v>6095.200352971435</v>
+        <v>6064.306309987454</v>
       </c>
       <c r="J43" t="n">
-        <v>73.50000000000001</v>
+        <v>66.95344830607631</v>
       </c>
       <c r="K43" t="n">
-        <v>8126.933803961914</v>
+        <v>8085.741746649939</v>
       </c>
       <c r="L43" t="n">
-        <v>119</v>
+        <v>108.0890805101272</v>
       </c>
       <c r="M43" t="n">
-        <v>10158.66725495239</v>
+        <v>10107.17718331242</v>
       </c>
       <c r="N43" t="n">
-        <v>182</v>
+        <v>164.5425288162035</v>
       </c>
       <c r="O43" t="n">
-        <v>12190.40070594287</v>
+        <v>12128.61261997491</v>
       </c>
       <c r="P43" t="n">
-        <v>273</v>
+        <v>247.9048851732925</v>
       </c>
       <c r="Q43" t="n">
-        <v>14222.13415693335</v>
+        <v>14150.04805663739</v>
       </c>
       <c r="R43" t="n">
-        <v>420</v>
+        <v>380.7206898364578</v>
       </c>
       <c r="S43" t="n">
-        <v>16253.86760792383</v>
+        <v>16171.48349329988</v>
       </c>
       <c r="T43" t="n">
-        <v>665</v>
+        <v>610.4454025506359</v>
       </c>
       <c r="U43" t="n">
-        <v>18285.6010589143</v>
+        <v>18192.91892996236</v>
       </c>
       <c r="V43" t="n">
-        <v>1050</v>
+        <v>973.6235635708903</v>
       </c>
       <c r="W43" t="n">
-        <v>19809.40114715716</v>
+        <v>19708.99550745923</v>
       </c>
       <c r="X43" t="n">
-        <v>1400</v>
+        <v>1290.890805101272</v>
       </c>
       <c r="Y43" t="n">
-        <v>20317.33450990478</v>
+        <v>20214.35436662485</v>
       </c>
     </row>
     <row r="44">
@@ -3808,67 +3808,67 @@
         <v>1.75</v>
       </c>
       <c r="E44" t="n">
-        <v>1328.923985919506</v>
+        <v>1325.755439194676</v>
       </c>
       <c r="F44" t="n">
         <v>17.5</v>
       </c>
       <c r="G44" t="n">
-        <v>5315.695943678023</v>
+        <v>5303.021756778704</v>
       </c>
       <c r="H44" t="n">
         <v>38.5</v>
       </c>
       <c r="I44" t="n">
-        <v>7973.543915517033</v>
+        <v>7954.532635168054</v>
       </c>
       <c r="J44" t="n">
         <v>73.50000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>10631.39188735605</v>
+        <v>10606.04351355741</v>
       </c>
       <c r="L44" t="n">
         <v>119</v>
       </c>
       <c r="M44" t="n">
-        <v>13289.23985919506</v>
+        <v>13257.55439194676</v>
       </c>
       <c r="N44" t="n">
         <v>182</v>
       </c>
       <c r="O44" t="n">
-        <v>15947.08783103407</v>
+        <v>15909.06527033611</v>
       </c>
       <c r="P44" t="n">
         <v>273</v>
       </c>
       <c r="Q44" t="n">
-        <v>18604.93580287308</v>
+        <v>18560.57614872546</v>
       </c>
       <c r="R44" t="n">
         <v>420</v>
       </c>
       <c r="S44" t="n">
-        <v>21262.78377471209</v>
+        <v>21212.08702711482</v>
       </c>
       <c r="T44" t="n">
         <v>665</v>
       </c>
       <c r="U44" t="n">
-        <v>23920.6317465511</v>
+        <v>23863.59790550416</v>
       </c>
       <c r="V44" t="n">
         <v>1050</v>
       </c>
       <c r="W44" t="n">
-        <v>25914.01772543036</v>
+        <v>25852.23106429618</v>
       </c>
       <c r="X44" t="n">
         <v>1400</v>
       </c>
       <c r="Y44" t="n">
-        <v>26578.47971839011</v>
+        <v>26515.10878389352</v>
       </c>
     </row>
     <row r="45">
@@ -3882,70 +3882,70 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>1.697619463843445</v>
       </c>
       <c r="E45" t="n">
-        <v>753.0170541702568</v>
+        <v>1189.290824209362</v>
       </c>
       <c r="F45" t="n">
-        <v>1.951232399646889</v>
+        <v>16.97619463843445</v>
       </c>
       <c r="G45" t="n">
-        <v>1468.970227876105</v>
+        <v>4757.163296837446</v>
       </c>
       <c r="H45" t="n">
-        <v>3.807307877431757</v>
+        <v>36.92858391530334</v>
       </c>
       <c r="I45" t="n">
-        <v>2863.772082700163</v>
+        <v>7135.74494525617</v>
       </c>
       <c r="J45" t="n">
-        <v>7.428942485875671</v>
+        <v>70.3571678306067</v>
       </c>
       <c r="K45" t="n">
-        <v>5569.183347451703</v>
+        <v>9514.326593674892</v>
       </c>
       <c r="L45" t="n">
-        <v>14.49559327355391</v>
+        <v>113.7619463843445</v>
       </c>
       <c r="M45" t="n">
-        <v>10730.48015477292</v>
+        <v>11892.90824209362</v>
       </c>
       <c r="N45" t="n">
-        <v>28.28427124746191</v>
+        <v>173.6191142149511</v>
       </c>
       <c r="O45" t="n">
-        <v>19994.42715727854</v>
+        <v>14271.48989051234</v>
       </c>
       <c r="P45" t="n">
-        <v>55.18918645844859</v>
+        <v>260.9524766839924</v>
       </c>
       <c r="Q45" t="n">
-        <v>33515.1753750662</v>
+        <v>16650.07153893106</v>
       </c>
       <c r="R45" t="n">
-        <v>107.6869287278782</v>
+        <v>401.1430069836401</v>
       </c>
       <c r="S45" t="n">
-        <v>44697.02683904086</v>
+        <v>19028.65318734978</v>
       </c>
       <c r="T45" t="n">
-        <v>210.1222243523014</v>
+        <v>638.8097319217225</v>
       </c>
       <c r="U45" t="n">
-        <v>47679.51214757744</v>
+        <v>21407.23483576851</v>
       </c>
       <c r="V45" t="n">
-        <v>409.9972920420831</v>
+        <v>1013.333624690411</v>
       </c>
       <c r="W45" t="n">
-        <v>47806.61222245733</v>
+        <v>23191.17107208255</v>
       </c>
       <c r="X45" t="n">
-        <v>800.0000000000003</v>
+        <v>1347.619463843445</v>
       </c>
       <c r="Y45" t="n">
-        <v>47806.84704283991</v>
+        <v>23785.81648418723</v>
       </c>
     </row>
     <row r="46">
@@ -3959,70 +3959,70 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.75</v>
+        <v>1.544769642079615</v>
       </c>
       <c r="E46" t="n">
-        <v>936.3224821111166</v>
+        <v>929.0650491936899</v>
       </c>
       <c r="F46" t="n">
-        <v>17.5</v>
+        <v>15.44769642079615</v>
       </c>
       <c r="G46" t="n">
-        <v>3745.289928444467</v>
+        <v>3716.26019677476</v>
       </c>
       <c r="H46" t="n">
-        <v>38.5</v>
+        <v>32.34308926238844</v>
       </c>
       <c r="I46" t="n">
-        <v>5617.934892666699</v>
+        <v>5574.390295162139</v>
       </c>
       <c r="J46" t="n">
-        <v>73.50000000000001</v>
+        <v>61.18617852477687</v>
       </c>
       <c r="K46" t="n">
-        <v>7490.579856888933</v>
+        <v>7432.520393549519</v>
       </c>
       <c r="L46" t="n">
-        <v>119</v>
+        <v>98.47696420796146</v>
       </c>
       <c r="M46" t="n">
-        <v>9363.224821111166</v>
+        <v>9290.650491936898</v>
       </c>
       <c r="N46" t="n">
-        <v>182</v>
+        <v>149.1631427327383</v>
       </c>
       <c r="O46" t="n">
-        <v>11235.8697853334</v>
+        <v>11148.78059032428</v>
       </c>
       <c r="P46" t="n">
-        <v>273</v>
+        <v>225.7970176783113</v>
       </c>
       <c r="Q46" t="n">
-        <v>13108.51474955563</v>
+        <v>13006.91068871166</v>
       </c>
       <c r="R46" t="n">
-        <v>420</v>
+        <v>346.1170711486612</v>
       </c>
       <c r="S46" t="n">
-        <v>14981.15971377787</v>
+        <v>14865.04078709904</v>
       </c>
       <c r="T46" t="n">
-        <v>665</v>
+        <v>562.3848210398072</v>
       </c>
       <c r="U46" t="n">
-        <v>16853.8046780001</v>
+        <v>16723.17088548642</v>
       </c>
       <c r="V46" t="n">
-        <v>1050</v>
+        <v>906.3387494557302</v>
       </c>
       <c r="W46" t="n">
-        <v>18258.28840116677</v>
+        <v>18116.76845927695</v>
       </c>
       <c r="X46" t="n">
-        <v>1400</v>
+        <v>1194.769642079615</v>
       </c>
       <c r="Y46" t="n">
-        <v>18726.44964222233</v>
+        <v>18581.3009838738</v>
       </c>
     </row>
     <row r="47">
@@ -4039,67 +4039,67 @@
         <v>1.75</v>
       </c>
       <c r="E47" t="n">
-        <v>1569.949304764902</v>
+        <v>1567.447980868286</v>
       </c>
       <c r="F47" t="n">
         <v>17.5</v>
       </c>
       <c r="G47" t="n">
-        <v>6279.797219059608</v>
+        <v>6269.791923473143</v>
       </c>
       <c r="H47" t="n">
         <v>38.5</v>
       </c>
       <c r="I47" t="n">
-        <v>9419.695828589412</v>
+        <v>9404.687885209714</v>
       </c>
       <c r="J47" t="n">
         <v>73.50000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>12559.59443811922</v>
+        <v>12539.58384694629</v>
       </c>
       <c r="L47" t="n">
         <v>119</v>
       </c>
       <c r="M47" t="n">
-        <v>15699.49304764902</v>
+        <v>15674.47980868286</v>
       </c>
       <c r="N47" t="n">
         <v>182</v>
       </c>
       <c r="O47" t="n">
-        <v>18839.39165717882</v>
+        <v>18809.37577041943</v>
       </c>
       <c r="P47" t="n">
         <v>273</v>
       </c>
       <c r="Q47" t="n">
-        <v>21979.29026670863</v>
+        <v>21944.271732156</v>
       </c>
       <c r="R47" t="n">
         <v>420</v>
       </c>
       <c r="S47" t="n">
-        <v>25119.18887623843</v>
+        <v>25079.16769389257</v>
       </c>
       <c r="T47" t="n">
         <v>665</v>
       </c>
       <c r="U47" t="n">
-        <v>28259.08748576824</v>
+        <v>28214.06365562914</v>
       </c>
       <c r="V47" t="n">
         <v>1050</v>
       </c>
       <c r="W47" t="n">
-        <v>30614.01144291559</v>
+        <v>30565.23562693157</v>
       </c>
       <c r="X47" t="n">
         <v>1400</v>
       </c>
       <c r="Y47" t="n">
-        <v>31398.98609529804</v>
+        <v>31348.95961736572</v>
       </c>
     </row>
     <row r="48">
@@ -4113,70 +4113,70 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.431866064626529</v>
+        <v>1.219205889364332</v>
       </c>
       <c r="E48" t="n">
-        <v>531.5637906598059</v>
+        <v>528.8408195267048</v>
       </c>
       <c r="F48" t="n">
-        <v>14.31866064626529</v>
+        <v>12.19205889364332</v>
       </c>
       <c r="G48" t="n">
-        <v>2126.255162639224</v>
+        <v>2115.363278106819</v>
       </c>
       <c r="H48" t="n">
-        <v>28.95598193879586</v>
+        <v>23.11855901283696</v>
       </c>
       <c r="I48" t="n">
-        <v>3189.382743958835</v>
+        <v>3173.044917160229</v>
       </c>
       <c r="J48" t="n">
-        <v>54.41196387759172</v>
+        <v>41.65235336185991</v>
       </c>
       <c r="K48" t="n">
-        <v>4252.510325278447</v>
+        <v>4230.726556213638</v>
       </c>
       <c r="L48" t="n">
-        <v>87.18660646265288</v>
+        <v>65.92058893643318</v>
       </c>
       <c r="M48" t="n">
-        <v>5315.637906598059</v>
+        <v>5288.408195267048</v>
       </c>
       <c r="N48" t="n">
-        <v>131.0985703402446</v>
+        <v>100.6888245110064</v>
       </c>
       <c r="O48" t="n">
-        <v>6378.765487917671</v>
+        <v>6346.089834320457</v>
       </c>
       <c r="P48" t="n">
-        <v>199.8291948641016</v>
+        <v>150.9173545537963</v>
       </c>
       <c r="Q48" t="n">
-        <v>7441.893069237282</v>
+        <v>7403.771473373866</v>
       </c>
       <c r="R48" t="n">
-        <v>305.4717832655504</v>
+        <v>232.5300023838728</v>
       </c>
       <c r="S48" t="n">
-        <v>8505.020650556895</v>
+        <v>8461.453112427276</v>
       </c>
       <c r="T48" t="n">
-        <v>505.9330323132644</v>
+        <v>385.1394158313125</v>
       </c>
       <c r="U48" t="n">
-        <v>9568.148231876507</v>
+        <v>9519.134751480686</v>
       </c>
       <c r="V48" t="n">
-        <v>827.3062452385701</v>
+        <v>660.3647114914655</v>
       </c>
       <c r="W48" t="n">
-        <v>10365.49391786622</v>
+        <v>10312.39598077074</v>
       </c>
       <c r="X48" t="n">
-        <v>1081.866064626529</v>
+        <v>959.6029446821659</v>
       </c>
       <c r="Y48" t="n">
-        <v>10631.27581319612</v>
+        <v>10576.8163905341</v>
       </c>
     </row>
     <row r="49">
@@ -4190,70 +4190,70 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1.75</v>
+        <v>1.581285800410201</v>
       </c>
       <c r="E49" t="n">
-        <v>1045.639033197677</v>
+        <v>1039.528517205156</v>
       </c>
       <c r="F49" t="n">
-        <v>17.5</v>
+        <v>15.81285800410201</v>
       </c>
       <c r="G49" t="n">
-        <v>4182.556132790708</v>
+        <v>4158.114068820623</v>
       </c>
       <c r="H49" t="n">
-        <v>38.5</v>
+        <v>33.43857401230601</v>
       </c>
       <c r="I49" t="n">
-        <v>6273.834199186063</v>
+        <v>6237.171103230934</v>
       </c>
       <c r="J49" t="n">
-        <v>73.50000000000001</v>
+        <v>63.37714802461203</v>
       </c>
       <c r="K49" t="n">
-        <v>8365.112265581416</v>
+        <v>8316.228137641247</v>
       </c>
       <c r="L49" t="n">
-        <v>119</v>
+        <v>102.1285800410201</v>
       </c>
       <c r="M49" t="n">
-        <v>10456.39033197677</v>
+        <v>10395.28517205156</v>
       </c>
       <c r="N49" t="n">
-        <v>182</v>
+        <v>155.0057280656321</v>
       </c>
       <c r="O49" t="n">
-        <v>12547.66839837213</v>
+        <v>12474.34220646187</v>
       </c>
       <c r="P49" t="n">
-        <v>273</v>
+        <v>234.1957340943461</v>
       </c>
       <c r="Q49" t="n">
-        <v>14638.94646476748</v>
+        <v>14553.39924087218</v>
       </c>
       <c r="R49" t="n">
-        <v>420</v>
+        <v>359.2628881476722</v>
       </c>
       <c r="S49" t="n">
-        <v>16730.22453116283</v>
+        <v>16632.45627528249</v>
       </c>
       <c r="T49" t="n">
-        <v>665</v>
+        <v>580.6429002051003</v>
       </c>
       <c r="U49" t="n">
-        <v>18821.50259755819</v>
+        <v>18711.5133096928</v>
       </c>
       <c r="V49" t="n">
-        <v>1050</v>
+        <v>931.9000602871406</v>
       </c>
       <c r="W49" t="n">
-        <v>20389.9611473547</v>
+        <v>20270.80608550054</v>
       </c>
       <c r="X49" t="n">
-        <v>1400</v>
+        <v>1231.285800410201</v>
       </c>
       <c r="Y49" t="n">
-        <v>20912.78066395354</v>
+        <v>20790.57034410311</v>
       </c>
     </row>
     <row r="50">
@@ -4267,70 +4267,70 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1.4712542839771</v>
+        <v>1.32608366834818</v>
       </c>
       <c r="E50" t="n">
-        <v>622.6994688284027</v>
+        <v>621.2452561901787</v>
       </c>
       <c r="F50" t="n">
-        <v>14.712542839771</v>
+        <v>13.2608366834818</v>
       </c>
       <c r="G50" t="n">
-        <v>2490.797875313611</v>
+        <v>2484.981024760715</v>
       </c>
       <c r="H50" t="n">
-        <v>30.13762851931299</v>
+        <v>26.00425904540086</v>
       </c>
       <c r="I50" t="n">
-        <v>3736.196812970416</v>
+        <v>3727.471537141071</v>
       </c>
       <c r="J50" t="n">
-        <v>56.775257038626</v>
+        <v>48.06502010089081</v>
       </c>
       <c r="K50" t="n">
-        <v>4981.595750627222</v>
+        <v>4969.962049521429</v>
       </c>
       <c r="L50" t="n">
-        <v>91.12542839771001</v>
+        <v>76.608366834818</v>
       </c>
       <c r="M50" t="n">
-        <v>6226.994688284027</v>
+        <v>6212.452561901786</v>
       </c>
       <c r="N50" t="n">
-        <v>137.400685436336</v>
+        <v>115.6517135687452</v>
       </c>
       <c r="O50" t="n">
-        <v>7472.393625940832</v>
+        <v>7454.943074282142</v>
       </c>
       <c r="P50" t="n">
-        <v>208.888485314733</v>
+        <v>175.4992437200814</v>
       </c>
       <c r="Q50" t="n">
-        <v>8717.792563597637</v>
+        <v>8697.433586662499</v>
       </c>
       <c r="R50" t="n">
-        <v>319.651542231756</v>
+        <v>268.8684472383812</v>
       </c>
       <c r="S50" t="n">
-        <v>9963.191501254443</v>
+        <v>9939.924099042859</v>
       </c>
       <c r="T50" t="n">
-        <v>525.6271419885501</v>
+        <v>447.1285276419445</v>
       </c>
       <c r="U50" t="n">
-        <v>11208.59043891125</v>
+        <v>11182.41461142322</v>
       </c>
       <c r="V50" t="n">
-        <v>854.8779987839699</v>
+        <v>745.8669346785441</v>
       </c>
       <c r="W50" t="n">
-        <v>12142.63964215385</v>
+        <v>12114.28249570848</v>
       </c>
       <c r="X50" t="n">
-        <v>1121.2542839771</v>
+        <v>1013.04183417409</v>
       </c>
       <c r="Y50" t="n">
-        <v>12453.98937656805</v>
+        <v>12424.90512380357</v>
       </c>
     </row>
     <row r="51">
@@ -4344,70 +4344,70 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1.181293860057921</v>
+        <v>1.05</v>
       </c>
       <c r="E51" t="n">
-        <v>398.8900394059656</v>
+        <v>395.0137418698256</v>
       </c>
       <c r="F51" t="n">
-        <v>11.81293860057921</v>
+        <v>10.5</v>
       </c>
       <c r="G51" t="n">
-        <v>1595.560157623862</v>
+        <v>1580.054967479302</v>
       </c>
       <c r="H51" t="n">
-        <v>22.09493422156388</v>
+        <v>18.55</v>
       </c>
       <c r="I51" t="n">
-        <v>2393.340236435793</v>
+        <v>2370.082451218953</v>
       </c>
       <c r="J51" t="n">
-        <v>39.37763160347528</v>
+        <v>31.5</v>
       </c>
       <c r="K51" t="n">
-        <v>3191.120315247725</v>
+        <v>3160.109934958605</v>
       </c>
       <c r="L51" t="n">
-        <v>62.12938600579214</v>
+        <v>49</v>
       </c>
       <c r="M51" t="n">
-        <v>3988.900394059655</v>
+        <v>3950.137418698256</v>
       </c>
       <c r="N51" t="n">
-        <v>95.38114040810898</v>
+        <v>77</v>
       </c>
       <c r="O51" t="n">
-        <v>4786.680472871586</v>
+        <v>4740.164902437907</v>
       </c>
       <c r="P51" t="n">
-        <v>142.1975878133219</v>
+        <v>112</v>
       </c>
       <c r="Q51" t="n">
-        <v>5584.460551683517</v>
+        <v>5530.192386177558</v>
       </c>
       <c r="R51" t="n">
-        <v>219.6399124196933</v>
+        <v>175</v>
       </c>
       <c r="S51" t="n">
-        <v>6382.240630495449</v>
+        <v>6320.21986991721</v>
       </c>
       <c r="T51" t="n">
-        <v>363.1504388335944</v>
+        <v>287.0000000000001</v>
       </c>
       <c r="U51" t="n">
-        <v>7180.02070930738</v>
+        <v>7110.24735365686</v>
       </c>
       <c r="V51" t="n">
-        <v>630.0350880463371</v>
+        <v>525</v>
       </c>
       <c r="W51" t="n">
-        <v>7778.355768416328</v>
+        <v>7702.767966461599</v>
       </c>
       <c r="X51" t="n">
-        <v>940.6469300289606</v>
+        <v>875</v>
       </c>
       <c r="Y51" t="n">
-        <v>7977.800788119311</v>
+        <v>7900.274837396511</v>
       </c>
     </row>
     <row r="52">
@@ -4421,70 +4421,70 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1.435010994608074</v>
+        <v>1.283343306486956</v>
       </c>
       <c r="E52" t="n">
-        <v>596.4411019727329</v>
+        <v>594.9210937985963</v>
       </c>
       <c r="F52" t="n">
-        <v>14.35010994608074</v>
+        <v>12.83343306486956</v>
       </c>
       <c r="G52" t="n">
-        <v>2385.764407890932</v>
+        <v>2379.684375194385</v>
       </c>
       <c r="H52" t="n">
-        <v>29.05032983824222</v>
+        <v>24.85026927514781</v>
       </c>
       <c r="I52" t="n">
-        <v>3578.646611836397</v>
+        <v>3569.526562791578</v>
       </c>
       <c r="J52" t="n">
-        <v>54.60065967648443</v>
+        <v>45.50059838921735</v>
       </c>
       <c r="K52" t="n">
-        <v>4771.528815781863</v>
+        <v>4759.36875038877</v>
       </c>
       <c r="L52" t="n">
-        <v>87.5010994608074</v>
+        <v>72.33433064869557</v>
       </c>
       <c r="M52" t="n">
-        <v>5964.411019727328</v>
+        <v>5949.210937985963</v>
       </c>
       <c r="N52" t="n">
-        <v>131.6017591372918</v>
+        <v>109.6680629081738</v>
       </c>
       <c r="O52" t="n">
-        <v>7157.293223672794</v>
+        <v>7139.053125583156</v>
       </c>
       <c r="P52" t="n">
-        <v>200.552528759857</v>
+        <v>165.6689604919998</v>
       </c>
       <c r="Q52" t="n">
-        <v>8350.17542761826</v>
+        <v>8328.895313180348</v>
       </c>
       <c r="R52" t="n">
-        <v>306.6039580589066</v>
+        <v>254.336724205565</v>
       </c>
       <c r="S52" t="n">
-        <v>9543.057631563726</v>
+        <v>9518.737500777541</v>
       </c>
       <c r="T52" t="n">
-        <v>507.505497304037</v>
+        <v>422.3391177624343</v>
       </c>
       <c r="U52" t="n">
-        <v>10735.93983550919</v>
+        <v>10708.57968837473</v>
       </c>
       <c r="V52" t="n">
-        <v>829.5076962256518</v>
+        <v>711.6746451895646</v>
       </c>
       <c r="W52" t="n">
-        <v>11630.60148846829</v>
+        <v>11600.96132907263</v>
       </c>
       <c r="X52" t="n">
-        <v>1085.010994608074</v>
+        <v>991.6716532434779</v>
       </c>
       <c r="Y52" t="n">
-        <v>11928.82203945466</v>
+        <v>11898.42187597193</v>
       </c>
     </row>
     <row r="53">
@@ -4498,70 +4498,70 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>1.118809250590732</v>
       </c>
       <c r="E53" t="n">
-        <v>367.196085783462</v>
+        <v>480.4909730865634</v>
       </c>
       <c r="F53" t="n">
-        <v>1.951232399646889</v>
+        <v>11.18809250590732</v>
       </c>
       <c r="G53" t="n">
-        <v>716.3960026991288</v>
+        <v>1921.963892346253</v>
       </c>
       <c r="H53" t="n">
-        <v>3.807307877431757</v>
+        <v>20.40784976594977</v>
       </c>
       <c r="I53" t="n">
-        <v>1397.195153869669</v>
+        <v>2882.94583851938</v>
       </c>
       <c r="J53" t="n">
-        <v>7.428942485875671</v>
+        <v>35.62855503544394</v>
       </c>
       <c r="K53" t="n">
-        <v>2721.363137896133</v>
+        <v>3843.927784692507</v>
       </c>
       <c r="L53" t="n">
-        <v>14.49559327355391</v>
+        <v>55.88092505907323</v>
       </c>
       <c r="M53" t="n">
-        <v>5274.062199832274</v>
+        <v>4804.909730865634</v>
       </c>
       <c r="N53" t="n">
-        <v>28.28427124746191</v>
+        <v>86.63329508270253</v>
       </c>
       <c r="O53" t="n">
-        <v>10033.96835887713</v>
+        <v>5765.89167703876</v>
       </c>
       <c r="P53" t="n">
-        <v>55.18918645844859</v>
+        <v>127.8261276358685</v>
       </c>
       <c r="Q53" t="n">
-        <v>17916.36606744033</v>
+        <v>6726.873623211887</v>
       </c>
       <c r="R53" t="n">
-        <v>107.6869287278782</v>
+        <v>198.395145200849</v>
       </c>
       <c r="S53" t="n">
-        <v>26960.29476161373</v>
+        <v>7687.855569385014</v>
       </c>
       <c r="T53" t="n">
-        <v>210.1222243523014</v>
+        <v>326.9093653426248</v>
       </c>
       <c r="U53" t="n">
-        <v>31386.63162686837</v>
+        <v>8648.837515558142</v>
       </c>
       <c r="V53" t="n">
-        <v>409.9972920420831</v>
+        <v>580.0474004725859</v>
       </c>
       <c r="W53" t="n">
-        <v>31882.12339392172</v>
+        <v>9369.573975187986</v>
       </c>
       <c r="X53" t="n">
-        <v>800.0000000000003</v>
+        <v>909.4046252953661</v>
       </c>
       <c r="Y53" t="n">
-        <v>31887.1757483055</v>
+        <v>9609.819461731267</v>
       </c>
     </row>
     <row r="54">
@@ -4578,67 +4578,67 @@
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>1440.561525617465</v>
+        <v>1209.749751872877</v>
       </c>
       <c r="F54" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G54" t="n">
-        <v>2809.982857249707</v>
+        <v>2359.912164282212</v>
       </c>
       <c r="H54" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I54" t="n">
-        <v>5476.348656081072</v>
+        <v>4600.354778134581</v>
       </c>
       <c r="J54" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K54" t="n">
-        <v>10637.0761779513</v>
+        <v>8943.983416008236</v>
       </c>
       <c r="L54" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M54" t="n">
-        <v>20403.97316620289</v>
+        <v>17216.18024970176</v>
       </c>
       <c r="N54" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O54" t="n">
-        <v>37438.70978743157</v>
+        <v>31970.79071590343</v>
       </c>
       <c r="P54" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q54" t="n">
-        <v>60176.0118591938</v>
+        <v>53079.48265801766</v>
       </c>
       <c r="R54" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S54" t="n">
-        <v>75471.97120714867</v>
+        <v>69724.41877713433</v>
       </c>
       <c r="T54" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U54" t="n">
-        <v>78344.45669464461</v>
+        <v>73812.41271436267</v>
       </c>
       <c r="V54" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W54" t="n">
-        <v>78413.90160083135</v>
+        <v>73965.045170932</v>
       </c>
       <c r="X54" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y54" t="n">
-        <v>78413.94651014789</v>
+        <v>73965.26646918175</v>
       </c>
     </row>
     <row r="55">
@@ -4655,67 +4655,67 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1322.91669859974</v>
+        <v>1114.656762628406</v>
       </c>
       <c r="F55" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G55" t="n">
-        <v>2580.646874958904</v>
+        <v>2174.494488986071</v>
       </c>
       <c r="H55" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I55" t="n">
-        <v>5030.464074419693</v>
+        <v>4239.531687191783</v>
       </c>
       <c r="J55" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K55" t="n">
-        <v>9778.83521670922</v>
+        <v>8247.078153391385</v>
       </c>
       <c r="L55" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M55" t="n">
-        <v>18813.42627455421</v>
+        <v>15907.76140976399</v>
       </c>
       <c r="N55" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O55" t="n">
-        <v>34874.0388329518</v>
+        <v>29757.14233705641</v>
       </c>
       <c r="P55" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q55" t="n">
-        <v>57610.34272392797</v>
+        <v>50443.49871363184</v>
       </c>
       <c r="R55" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S55" t="n">
-        <v>75100.04877244782</v>
+        <v>68544.81351958055</v>
       </c>
       <c r="T55" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U55" t="n">
-        <v>79216.81990961111</v>
+        <v>73876.66168519537</v>
       </c>
       <c r="V55" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W55" t="n">
-        <v>79360.37553050985</v>
+        <v>74142.8779391743</v>
       </c>
       <c r="X55" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y55" t="n">
-        <v>79360.55905092652</v>
+        <v>74143.53390590551</v>
       </c>
     </row>
     <row r="56">
@@ -4732,67 +4732,67 @@
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>1899.740517269301</v>
+        <v>1595.903204378066</v>
       </c>
       <c r="F56" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G56" t="n">
-        <v>3705.652990887485</v>
+        <v>3113.152097184361</v>
       </c>
       <c r="H56" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I56" t="n">
-        <v>7221.82339191789</v>
+        <v>6068.35673920872</v>
       </c>
       <c r="J56" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K56" t="n">
-        <v>14026.78084572297</v>
+        <v>11795.52446481128</v>
       </c>
       <c r="L56" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M56" t="n">
-        <v>26901.50119235769</v>
+        <v>22686.93408290453</v>
       </c>
       <c r="N56" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O56" t="n">
-        <v>49332.25038124202</v>
+        <v>42013.26706554426</v>
       </c>
       <c r="P56" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q56" t="n">
-        <v>79173.14095822908</v>
+        <v>69217.50981236047</v>
       </c>
       <c r="R56" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S56" t="n">
-        <v>99101.2020533637</v>
+        <v>89868.2287207037</v>
       </c>
       <c r="T56" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U56" t="n">
-        <v>102798.2607459502</v>
+        <v>94620.14321703419</v>
       </c>
       <c r="V56" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W56" t="n">
-        <v>102885.8777978432</v>
+        <v>94779.90704513049</v>
       </c>
       <c r="X56" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y56" t="n">
-        <v>102885.9323818617</v>
+        <v>94780.09796917558</v>
       </c>
     </row>
     <row r="57">
@@ -4809,67 +4809,67 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1023.159873076272</v>
+        <v>869.085991149753</v>
       </c>
       <c r="F57" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G57" t="n">
-        <v>1996.045167452569</v>
+        <v>1695.501348906878</v>
       </c>
       <c r="H57" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I57" t="n">
-        <v>3891.946433037501</v>
+        <v>3306.184209670171</v>
       </c>
       <c r="J57" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K57" t="n">
-        <v>7573.365363510815</v>
+        <v>6435.346901958876</v>
       </c>
       <c r="L57" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M57" t="n">
-        <v>14625.81333955035</v>
+        <v>12441.21502165265</v>
       </c>
       <c r="N57" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O57" t="n">
-        <v>27475.89910856951</v>
+        <v>23460.38984583164</v>
       </c>
       <c r="P57" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q57" t="n">
-        <v>47166.34451153481</v>
+        <v>40736.33869980975</v>
       </c>
       <c r="R57" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S57" t="n">
-        <v>65534.68394281769</v>
+        <v>57831.00412914238</v>
       </c>
       <c r="T57" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U57" t="n">
-        <v>71603.14041691615</v>
+        <v>64124.05750653769</v>
       </c>
       <c r="V57" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W57" t="n">
-        <v>71966.79684879143</v>
+        <v>64571.82396944646</v>
       </c>
       <c r="X57" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y57" t="n">
-        <v>71968.04113678979</v>
+        <v>64573.90294557992</v>
       </c>
     </row>
     <row r="58">
@@ -4886,67 +4886,67 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1317.375156672964</v>
+        <v>1158.013123256564</v>
       </c>
       <c r="F58" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G58" t="n">
-        <v>2569.911108505181</v>
+        <v>2259.104789569016</v>
       </c>
       <c r="H58" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I58" t="n">
-        <v>5010.087054103835</v>
+        <v>4404.714572815</v>
       </c>
       <c r="J58" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K58" t="n">
-        <v>9743.271880924578</v>
+        <v>8570.035864035492</v>
       </c>
       <c r="L58" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M58" t="n">
-        <v>18773.99092145086</v>
+        <v>16542.45922576078</v>
       </c>
       <c r="N58" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O58" t="n">
-        <v>34988.95814504209</v>
+        <v>31022.24654145575</v>
       </c>
       <c r="P58" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q58" t="n">
-        <v>58681.99877127983</v>
+        <v>52977.87827967849</v>
       </c>
       <c r="R58" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S58" t="n">
-        <v>78330.96754243418</v>
+        <v>72922.68973871011</v>
       </c>
       <c r="T58" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U58" t="n">
-        <v>83597.29356885854</v>
+        <v>79203.58102321145</v>
       </c>
       <c r="V58" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W58" t="n">
-        <v>83823.46556228987</v>
+        <v>79552.36790822684</v>
       </c>
       <c r="X58" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y58" t="n">
-        <v>83823.88937139284</v>
+        <v>79553.40901162465</v>
       </c>
     </row>
     <row r="59">
@@ -4963,67 +4963,67 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>1262.050290688434</v>
+        <v>1041.884471112497</v>
       </c>
       <c r="F59" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G59" t="n">
-        <v>2462.145409048269</v>
+        <v>2032.652591210494</v>
       </c>
       <c r="H59" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I59" t="n">
-        <v>4801.189720755983</v>
+        <v>3963.905230194672</v>
       </c>
       <c r="J59" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K59" t="n">
-        <v>9345.822372298193</v>
+        <v>7717.674708478216</v>
       </c>
       <c r="L59" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M59" t="n">
-        <v>18071.62821584296</v>
+        <v>14935.53358161585</v>
       </c>
       <c r="N59" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O59" t="n">
-        <v>34102.66883023534</v>
+        <v>28267.4350164893</v>
       </c>
       <c r="P59" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q59" t="n">
-        <v>59348.95043297269</v>
+        <v>49643.97382057369</v>
       </c>
       <c r="R59" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S59" t="n">
-        <v>84624.57889031568</v>
+        <v>72091.83946320163</v>
       </c>
       <c r="T59" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U59" t="n">
-        <v>94134.42397488313</v>
+        <v>81333.97786236748</v>
       </c>
       <c r="V59" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W59" t="n">
-        <v>94834.89347324104</v>
+        <v>82119.38702425043</v>
       </c>
       <c r="X59" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y59" t="n">
-        <v>94838.35047121407</v>
+        <v>82124.3673757392</v>
       </c>
     </row>
     <row r="60">
@@ -5040,67 +5040,67 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>1849.791657370876</v>
+        <v>1612.404769050863</v>
       </c>
       <c r="F60" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G60" t="n">
-        <v>3608.335064035899</v>
+        <v>3145.411907970721</v>
       </c>
       <c r="H60" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I60" t="n">
-        <v>7032.99922491455</v>
+        <v>6131.758012044768</v>
       </c>
       <c r="J60" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K60" t="n">
-        <v>13666.16440112942</v>
+        <v>11922.57447706022</v>
       </c>
       <c r="L60" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M60" t="n">
-        <v>26253.42083295857</v>
+        <v>22958.55539174082</v>
       </c>
       <c r="N60" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O60" t="n">
-        <v>48417.76158352636</v>
+        <v>42692.26641714147</v>
       </c>
       <c r="P60" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q60" t="n">
-        <v>78879.49593301823</v>
+        <v>71149.6658167578</v>
       </c>
       <c r="R60" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S60" t="n">
-        <v>100764.3886848289</v>
+        <v>94016.53919903356</v>
       </c>
       <c r="T60" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U60" t="n">
-        <v>105351.9416311961</v>
+        <v>99818.36288884205</v>
       </c>
       <c r="V60" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W60" t="n">
-        <v>105484.5933408602</v>
+        <v>100046.5935683377</v>
       </c>
       <c r="X60" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y60" t="n">
-        <v>105484.7131897428</v>
+        <v>100046.9577750585</v>
       </c>
     </row>
     <row r="61">
@@ -5117,67 +5117,67 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>2200.662589822041</v>
+        <v>1868.383705417894</v>
       </c>
       <c r="F61" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G61" t="n">
-        <v>4292.848808280381</v>
+        <v>3644.81571033255</v>
       </c>
       <c r="H61" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I61" t="n">
-        <v>8367.776049820613</v>
+        <v>7105.686705412117</v>
       </c>
       <c r="J61" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K61" t="n">
-        <v>16264.18641562979</v>
+        <v>13819.04828576578</v>
       </c>
       <c r="L61" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M61" t="n">
-        <v>31275.36432402564</v>
+        <v>26630.33144823024</v>
       </c>
       <c r="N61" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O61" t="n">
-        <v>57877.08004993857</v>
+        <v>49649.46247015853</v>
       </c>
       <c r="P61" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q61" t="n">
-        <v>95168.90559229912</v>
+        <v>83359.65294320606</v>
       </c>
       <c r="R61" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S61" t="n">
-        <v>123208.4364310263</v>
+        <v>111466.854262718</v>
       </c>
       <c r="T61" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U61" t="n">
-        <v>129556.671862606</v>
+        <v>119071.2946660282</v>
       </c>
       <c r="V61" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W61" t="n">
-        <v>129764.5888377972</v>
+        <v>119402.8250639223</v>
       </c>
       <c r="X61" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y61" t="n">
-        <v>129764.8255577684</v>
+        <v>119403.4635641107</v>
       </c>
     </row>
     <row r="62">
@@ -5194,67 +5194,67 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>1411.197426824226</v>
+        <v>1204.656730227845</v>
       </c>
       <c r="F62" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G62" t="n">
-        <v>2753.062805049321</v>
+        <v>2350.161914932526</v>
       </c>
       <c r="H62" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I62" t="n">
-        <v>5368.070720157904</v>
+        <v>4582.718739272862</v>
       </c>
       <c r="J62" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K62" t="n">
-        <v>10446.27797684352</v>
+        <v>8919.795465506128</v>
       </c>
       <c r="L62" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M62" t="n">
-        <v>20177.73032677633</v>
+        <v>17242.34020146045</v>
       </c>
       <c r="N62" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O62" t="n">
-        <v>37930.40806068548</v>
+        <v>32500.60001103203</v>
       </c>
       <c r="P62" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q62" t="n">
-        <v>65240.52544266645</v>
+        <v>56363.25234877856</v>
       </c>
       <c r="R62" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S62" t="n">
-        <v>90973.65772635404</v>
+        <v>79823.06812772484</v>
       </c>
       <c r="T62" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U62" t="n">
-        <v>99631.63663085218</v>
+        <v>88356.18677999683</v>
       </c>
       <c r="V62" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W62" t="n">
-        <v>100165.7060279824</v>
+        <v>88951.87653057273</v>
       </c>
       <c r="X62" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y62" t="n">
-        <v>100167.6303611226</v>
+        <v>88954.55066642658</v>
       </c>
     </row>
     <row r="63">
@@ -5271,67 +5271,67 @@
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1114.373902596259</v>
+        <v>920.8682145438237</v>
       </c>
       <c r="F63" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G63" t="n">
-        <v>2174.033596431899</v>
+        <v>1796.559680897057</v>
       </c>
       <c r="H63" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I63" t="n">
-        <v>4239.307174452483</v>
+        <v>3503.514617159767</v>
       </c>
       <c r="J63" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K63" t="n">
-        <v>8251.611403706618</v>
+        <v>6821.429725152862</v>
       </c>
       <c r="L63" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M63" t="n">
-        <v>15952.38885225643</v>
+        <v>13202.02983041941</v>
       </c>
       <c r="N63" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O63" t="n">
-        <v>30080.44705751051</v>
+        <v>24992.99175214729</v>
       </c>
       <c r="P63" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q63" t="n">
-        <v>52226.21958472007</v>
+        <v>43928.76274239274</v>
       </c>
       <c r="R63" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S63" t="n">
-        <v>74128.48453577771</v>
+        <v>63898.45676611501</v>
       </c>
       <c r="T63" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U63" t="n">
-        <v>82183.75824020461</v>
+        <v>72187.49414580534</v>
       </c>
       <c r="V63" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W63" t="n">
-        <v>82756.05424645987</v>
+        <v>72901.07677049539</v>
       </c>
       <c r="X63" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y63" t="n">
-        <v>82758.70439800805</v>
+        <v>72905.70476991122</v>
       </c>
     </row>
     <row r="64">
@@ -5348,67 +5348,67 @@
         <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>1472.417908248319</v>
+        <v>1235.680406980433</v>
       </c>
       <c r="F64" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G64" t="n">
-        <v>2872.522906965233</v>
+        <v>2410.709423053097</v>
       </c>
       <c r="H64" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I64" t="n">
-        <v>5601.199928814076</v>
+        <v>4700.958095290131</v>
       </c>
       <c r="J64" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K64" t="n">
-        <v>10901.41892802452</v>
+        <v>9151.221973470552</v>
       </c>
       <c r="L64" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M64" t="n">
-        <v>21067.50059632894</v>
+        <v>17699.01076597502</v>
       </c>
       <c r="N64" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O64" t="n">
-        <v>39674.38058941483</v>
+        <v>33424.39254130109</v>
       </c>
       <c r="P64" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q64" t="n">
-        <v>68612.37073714274</v>
+        <v>58302.24431081754</v>
       </c>
       <c r="R64" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S64" t="n">
-        <v>96653.78477807474</v>
+        <v>83509.1111261998</v>
       </c>
       <c r="T64" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U64" t="n">
-        <v>106584.8348023068</v>
+        <v>93208.09936663111</v>
       </c>
       <c r="V64" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W64" t="n">
-        <v>107249.3766257818</v>
+        <v>93948.37018887591</v>
       </c>
       <c r="X64" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y64" t="n">
-        <v>107252.1442643886</v>
+        <v>93952.25963112913</v>
       </c>
     </row>
     <row r="65">
@@ -5425,67 +5425,67 @@
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>2185.603100357311</v>
+        <v>1795.648843778713</v>
       </c>
       <c r="F65" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G65" t="n">
-        <v>4263.725528906581</v>
+        <v>3503.113019169166</v>
       </c>
       <c r="H65" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I65" t="n">
-        <v>8312.885549691151</v>
+        <v>6830.822087298147</v>
       </c>
       <c r="J65" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K65" t="n">
-        <v>16171.31502999366</v>
+        <v>13294.73456006284</v>
       </c>
       <c r="L65" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M65" t="n">
-        <v>31195.82643069186</v>
+        <v>25693.74473798855</v>
       </c>
       <c r="N65" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O65" t="n">
-        <v>58375.09540340424</v>
+        <v>48393.60308302465</v>
       </c>
       <c r="P65" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q65" t="n">
-        <v>99055.05649523537</v>
+        <v>83728.42734425097</v>
       </c>
       <c r="R65" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S65" t="n">
-        <v>134832.1103481092</v>
+        <v>118047.0826673062</v>
       </c>
       <c r="T65" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U65" t="n">
-        <v>145465.5702117893</v>
+        <v>130252.70737148</v>
       </c>
       <c r="V65" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W65" t="n">
-        <v>146004.1454392666</v>
+        <v>131074.945998574</v>
       </c>
       <c r="X65" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y65" t="n">
-        <v>146005.507305099</v>
+        <v>131078.4113634972</v>
       </c>
     </row>
     <row r="66">
@@ -5502,67 +5502,67 @@
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>1196.561904967129</v>
+        <v>997.2254279314296</v>
       </c>
       <c r="F66" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G66" t="n">
-        <v>2334.378786319867</v>
+        <v>1945.527743900978</v>
       </c>
       <c r="H66" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I66" t="n">
-        <v>4552.009375939874</v>
+        <v>3794.018138577332</v>
       </c>
       <c r="J66" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K66" t="n">
-        <v>8860.517824527231</v>
+        <v>7387.027247740896</v>
       </c>
       <c r="L66" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M66" t="n">
-        <v>17131.33821337753</v>
+        <v>14296.52811831153</v>
       </c>
       <c r="N66" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O66" t="n">
-        <v>32315.57168972728</v>
+        <v>27064.01238823744</v>
       </c>
       <c r="P66" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q66" t="n">
-        <v>56171.06336368943</v>
+        <v>47563.4050794108</v>
       </c>
       <c r="R66" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S66" t="n">
-        <v>79904.81993085788</v>
+        <v>69168.96292605549</v>
       </c>
       <c r="T66" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U66" t="n">
-        <v>88730.63807945594</v>
+        <v>78126.60225432126</v>
       </c>
       <c r="V66" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W66" t="n">
-        <v>89368.76381860762</v>
+        <v>78896.32086704702</v>
       </c>
       <c r="X66" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y66" t="n">
-        <v>89371.8116799258</v>
+        <v>78901.29691854061</v>
       </c>
     </row>
     <row r="67">
@@ -5579,67 +5579,67 @@
         <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>1886.794876141997</v>
+        <v>1597.115090505666</v>
       </c>
       <c r="F67" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G67" t="n">
-        <v>3680.794578140719</v>
+        <v>3115.761480885226</v>
       </c>
       <c r="H67" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I67" t="n">
-        <v>7176.292833716792</v>
+        <v>6075.261471074201</v>
       </c>
       <c r="J67" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K67" t="n">
-        <v>13959.7801759905</v>
+        <v>11822.33462858094</v>
       </c>
       <c r="L67" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M67" t="n">
-        <v>26926.09503751894</v>
+        <v>22834.68381610424</v>
       </c>
       <c r="N67" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O67" t="n">
-        <v>50362.29982748657</v>
+        <v>42918.31197711857</v>
       </c>
       <c r="P67" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q67" t="n">
-        <v>85344.15200445757</v>
+        <v>73785.26229507316</v>
       </c>
       <c r="R67" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S67" t="n">
-        <v>115902.7220336369</v>
+        <v>102800.2051452363</v>
       </c>
       <c r="T67" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U67" t="n">
-        <v>124876.9183812649</v>
+        <v>112519.8517671326</v>
       </c>
       <c r="V67" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W67" t="n">
-        <v>125322.8552590964</v>
+        <v>113115.271127876</v>
       </c>
       <c r="X67" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y67" t="n">
-        <v>125323.9445861853</v>
+        <v>113117.3901453677</v>
       </c>
     </row>
     <row r="68">
@@ -5656,67 +5656,67 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1593.835533798626</v>
+        <v>1380.233689710587</v>
       </c>
       <c r="F68" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G68" t="n">
-        <v>3109.338411444123</v>
+        <v>2692.68059025398</v>
       </c>
       <c r="H68" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I68" t="n">
-        <v>6062.55147618206</v>
+        <v>5250.512263058377</v>
       </c>
       <c r="J68" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K68" t="n">
-        <v>11796.23008302856</v>
+        <v>10218.82213345596</v>
       </c>
       <c r="L68" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M68" t="n">
-        <v>22774.36708867383</v>
+        <v>19747.87529678795</v>
       </c>
       <c r="N68" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O68" t="n">
-        <v>42738.89638779625</v>
+        <v>37186.06216081182</v>
       </c>
       <c r="P68" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q68" t="n">
-        <v>73138.55209981951</v>
+        <v>64292.32220150736</v>
       </c>
       <c r="R68" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S68" t="n">
-        <v>101047.7357031528</v>
+        <v>90523.37313315475</v>
       </c>
       <c r="T68" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U68" t="n">
-        <v>110005.6988308307</v>
+        <v>99790.24563391483</v>
       </c>
       <c r="V68" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W68" t="n">
-        <v>110518.4338474427</v>
+        <v>100407.9067441641</v>
       </c>
       <c r="X68" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y68" t="n">
-        <v>110520.0498009307</v>
+        <v>100410.4612225374</v>
       </c>
     </row>
     <row r="69">
@@ -5733,67 +5733,67 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>552.9415535739973</v>
+        <v>478.5135332169441</v>
       </c>
       <c r="F69" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G69" t="n">
-        <v>1078.827829382286</v>
+        <v>933.6073599459294</v>
       </c>
       <c r="H69" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I69" t="n">
-        <v>2104.378165405696</v>
+        <v>1821.063079106314</v>
       </c>
       <c r="J69" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K69" t="n">
-        <v>4101.194797458433</v>
+        <v>3548.706675577691</v>
       </c>
       <c r="L69" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M69" t="n">
-        <v>7965.967358358159</v>
+        <v>6890.354379086771</v>
       </c>
       <c r="N69" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O69" t="n">
-        <v>15279.87196370718</v>
+        <v>13199.11605223334</v>
       </c>
       <c r="P69" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q69" t="n">
-        <v>28034.15281737316</v>
+        <v>24107.57528820163</v>
       </c>
       <c r="R69" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S69" t="n">
-        <v>45049.48106306994</v>
+        <v>38292.39977253883</v>
       </c>
       <c r="T69" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U69" t="n">
-        <v>56483.30226542398</v>
+        <v>47302.44613751803</v>
       </c>
       <c r="V69" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W69" t="n">
-        <v>58626.50656896612</v>
+        <v>48841.18409481631</v>
       </c>
       <c r="X69" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y69" t="n">
-        <v>58678.1629277765</v>
+        <v>48873.01811726308</v>
       </c>
     </row>
     <row r="70">
@@ -5810,67 +5810,67 @@
         <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>1405.17729052985</v>
+        <v>1223.810127276175</v>
       </c>
       <c r="F70" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G70" t="n">
-        <v>2741.342992466399</v>
+        <v>2387.543561565676</v>
       </c>
       <c r="H70" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I70" t="n">
-        <v>5345.401875344231</v>
+        <v>4655.725094908708</v>
       </c>
       <c r="J70" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K70" t="n">
-        <v>10403.51463209288</v>
+        <v>9062.733817269334</v>
       </c>
       <c r="L70" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M70" t="n">
-        <v>20104.8902240068</v>
+        <v>17524.72161442859</v>
       </c>
       <c r="N70" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O70" t="n">
-        <v>37858.98599668893</v>
+        <v>33073.92639762568</v>
       </c>
       <c r="P70" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q70" t="n">
-        <v>65459.17678290904</v>
+        <v>57576.38559549519</v>
       </c>
       <c r="R70" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S70" t="n">
-        <v>92175.40200498576</v>
+        <v>82146.78070020481</v>
       </c>
       <c r="T70" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U70" t="n">
-        <v>101618.3540974222</v>
+        <v>91419.07096189426</v>
       </c>
       <c r="V70" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W70" t="n">
-        <v>102248.2464047416</v>
+        <v>92105.30269792637</v>
       </c>
       <c r="X70" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y70" t="n">
-        <v>102250.8551060455</v>
+        <v>92108.71796161022</v>
       </c>
     </row>
     <row r="71">
@@ -5887,67 +5887,67 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1417.223727052687</v>
+        <v>1254.955237272132</v>
       </c>
       <c r="F71" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G71" t="n">
-        <v>2764.823089960732</v>
+        <v>2448.286221236616</v>
       </c>
       <c r="H71" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I71" t="n">
-        <v>5391.029410145218</v>
+        <v>4774.035359473496</v>
       </c>
       <c r="J71" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K71" t="n">
-        <v>10491.1610143757</v>
+        <v>9292.013487135373</v>
       </c>
       <c r="L71" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M71" t="n">
-        <v>20265.90870182956</v>
+        <v>17960.69310193102</v>
       </c>
       <c r="N71" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O71" t="n">
-        <v>38106.10111256268</v>
+        <v>33846.82223524957</v>
       </c>
       <c r="P71" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q71" t="n">
-        <v>65594.12671214681</v>
+        <v>58656.5120049434</v>
       </c>
       <c r="R71" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S71" t="n">
-        <v>91599.35802994105</v>
+        <v>82958.38614058148</v>
       </c>
       <c r="T71" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U71" t="n">
-        <v>100413.3082646198</v>
+        <v>91738.18522027503</v>
       </c>
       <c r="V71" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W71" t="n">
-        <v>100963.3674702249</v>
+        <v>92344.5515937272</v>
       </c>
       <c r="X71" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y71" t="n">
-        <v>100965.3910249622</v>
+        <v>92347.22243281757</v>
       </c>
     </row>
     <row r="72">
@@ -5964,67 +5964,67 @@
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>1718.47786360447</v>
+        <v>1439.133635776551</v>
       </c>
       <c r="F72" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G72" t="n">
-        <v>3352.56122273051</v>
+        <v>2807.640729645354</v>
       </c>
       <c r="H72" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I72" t="n">
-        <v>6537.258845486216</v>
+        <v>5475.068208238504</v>
       </c>
       <c r="J72" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K72" t="n">
-        <v>12723.39190133438</v>
+        <v>10658.76373866791</v>
       </c>
       <c r="L72" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M72" t="n">
-        <v>24589.66481433301</v>
+        <v>20619.06313909428</v>
       </c>
       <c r="N72" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O72" t="n">
-        <v>46314.84353613613</v>
+        <v>38968.59070827888</v>
       </c>
       <c r="P72" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q72" t="n">
-        <v>80135.80052851663</v>
+        <v>68133.74408401524</v>
       </c>
       <c r="R72" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S72" t="n">
-        <v>112992.4935076358</v>
+        <v>98052.17354610491</v>
       </c>
       <c r="T72" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U72" t="n">
-        <v>124683.6510973874</v>
+        <v>109835.0150563094</v>
       </c>
       <c r="V72" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W72" t="n">
-        <v>125471.8193149584</v>
+        <v>110768.160467091</v>
       </c>
       <c r="X72" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y72" t="n">
-        <v>125475.1454806095</v>
+        <v>110773.3915084217</v>
       </c>
     </row>
     <row r="73">
@@ -6041,67 +6041,67 @@
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>1472.848634654831</v>
+        <v>1303.978372191526</v>
       </c>
       <c r="F73" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G73" t="n">
-        <v>2873.34799149453</v>
+        <v>2543.930499883114</v>
       </c>
       <c r="H73" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I73" t="n">
-        <v>5602.695965432083</v>
+        <v>4960.576039886434</v>
       </c>
       <c r="J73" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K73" t="n">
-        <v>10903.4985072455</v>
+        <v>9655.378393875717</v>
       </c>
       <c r="L73" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M73" t="n">
-        <v>21065.50332934178</v>
+        <v>18665.13728827284</v>
       </c>
       <c r="N73" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O73" t="n">
-        <v>39630.21063007819</v>
+        <v>35188.43863715501</v>
       </c>
       <c r="P73" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q73" t="n">
-        <v>68324.79730957164</v>
+        <v>61056.19098222541</v>
       </c>
       <c r="R73" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S73" t="n">
-        <v>95691.40783303542</v>
+        <v>86555.69345473978</v>
       </c>
       <c r="T73" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U73" t="n">
-        <v>105104.490675456</v>
+        <v>95877.02869219593</v>
       </c>
       <c r="V73" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W73" t="n">
-        <v>105705.8452173122</v>
+        <v>96532.9057876005</v>
       </c>
       <c r="X73" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y73" t="n">
-        <v>105708.1516430299</v>
+        <v>96535.89155391093</v>
       </c>
     </row>
     <row r="74">
@@ -6118,67 +6118,67 @@
         <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1614.272183167116</v>
+        <v>1435.798234198848</v>
       </c>
       <c r="F74" t="n">
         <v>1.951232399646889</v>
       </c>
       <c r="G74" t="n">
-        <v>3149.255471972408</v>
+        <v>2801.096451494333</v>
       </c>
       <c r="H74" t="n">
         <v>3.807307877431757</v>
       </c>
       <c r="I74" t="n">
-        <v>6140.738421629351</v>
+        <v>5462.030875945909</v>
       </c>
       <c r="J74" t="n">
         <v>7.428942485875671</v>
       </c>
       <c r="K74" t="n">
-        <v>11950.99599363622</v>
+        <v>10631.34900283037</v>
       </c>
       <c r="L74" t="n">
         <v>14.49559327355391</v>
       </c>
       <c r="M74" t="n">
-        <v>23092.18528670466</v>
+        <v>20551.29393725354</v>
       </c>
       <c r="N74" t="n">
         <v>28.28427124746191</v>
       </c>
       <c r="O74" t="n">
-        <v>43462.59221358388</v>
+        <v>38740.77198380256</v>
       </c>
       <c r="P74" t="n">
         <v>55.18918645844859</v>
       </c>
       <c r="Q74" t="n">
-        <v>75034.37516787507</v>
+        <v>67201.1339922156</v>
       </c>
       <c r="R74" t="n">
         <v>107.6869287278782</v>
       </c>
       <c r="S74" t="n">
-        <v>105357.409808121</v>
+        <v>95215.69578058514</v>
       </c>
       <c r="T74" t="n">
         <v>210.1222243523014</v>
       </c>
       <c r="U74" t="n">
-        <v>115922.5812423088</v>
+        <v>105428.9233873782</v>
       </c>
       <c r="V74" t="n">
         <v>409.9972920420831</v>
       </c>
       <c r="W74" t="n">
-        <v>116611.473465446</v>
+        <v>106144.4989570986</v>
       </c>
       <c r="X74" t="n">
         <v>800.0000000000003</v>
       </c>
       <c r="Y74" t="n">
-        <v>116614.2134724832</v>
+        <v>106147.7320189974</v>
       </c>
     </row>
   </sheetData>
